--- a/devices.xlsx
+++ b/devices.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06162E34-8B7D-4222-964D-1E0D757443CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$198</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="896">
   <si>
     <t>小米10</t>
   </si>
@@ -1541,14 +1545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>屏幕尺寸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分辨率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mac地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1557,21 +1553,1182 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Android 安卓</t>
+    <t>屏幕尺寸分辨率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Android 安卓</t>
+    <t>海思（Hisilicon） Kirin 810</t>
+  </si>
+  <si>
+    <t>8GB</t>
+  </si>
+  <si>
+    <t>AC:BD:70:71:69:9A</t>
+  </si>
+  <si>
+    <t>MTK Helio X20 10核 最高主频 2.1GHz</t>
+  </si>
+  <si>
+    <t>3GB</t>
+  </si>
+  <si>
+    <t>b0:e2:35:ff:5b:fe</t>
+  </si>
+  <si>
+    <t>苹果 A10+M10协处理器</t>
+  </si>
+  <si>
+    <t>98:10:E8:6A:3B:36</t>
+  </si>
+  <si>
+    <t>高通 Adreno512</t>
+  </si>
+  <si>
+    <t>6GB</t>
+  </si>
+  <si>
+    <t>a4:12:32:07:1f:a5</t>
+  </si>
+  <si>
+    <t>高通 骁龙855 Plus</t>
+  </si>
+  <si>
+    <t>e0:dc:ff:d8:a0:62</t>
+  </si>
+  <si>
+    <t>海思 麒麟 710F</t>
+  </si>
+  <si>
+    <t>海思 麒麟 980</t>
+  </si>
+  <si>
+    <t>高通 骁龙710</t>
+  </si>
+  <si>
+    <t>苹果 A9+M9协处理器</t>
+  </si>
+  <si>
+    <t>苹果 A13</t>
+  </si>
+  <si>
+    <t>高通 骁龙430</t>
+  </si>
+  <si>
+    <t>海思 Kirin 960（2.4GHz（大四核）1.8GHz（小四核）+微智核I6）</t>
+  </si>
+  <si>
+    <t>高通 骁龙665（2.0GHZ 八核）</t>
+  </si>
+  <si>
+    <t>联发科 天玑1000L</t>
+  </si>
+  <si>
+    <t>苹果 A8+M8协处理器</t>
+  </si>
+  <si>
+    <t>苹果 A12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUAWEI Kirin 990 </t>
+  </si>
+  <si>
+    <t>高通 骁龙450B（1.8GHZ 八核）</t>
+  </si>
+  <si>
+    <t>海思麒麟710F</t>
+  </si>
+  <si>
+    <t>骁龙730G</t>
+  </si>
+  <si>
+    <t>HUAWEI Kirin 990 5G</t>
+  </si>
+  <si>
+    <t>麒麟990</t>
+  </si>
+  <si>
+    <t>高通 骁龙615（MSM8939）</t>
+  </si>
+  <si>
+    <t>联发科 Helio P35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 海思 麒麟 980</t>
+  </si>
+  <si>
+    <t>苹果 A11+M11协处理器</t>
+  </si>
+  <si>
+    <t>联发科 Helio P60（MT6771）</t>
+  </si>
+  <si>
+    <t>高通 骁龙450B</t>
+  </si>
+  <si>
+    <t>骁龙660</t>
+  </si>
+  <si>
+    <t>海思 Kirin 710</t>
+  </si>
+  <si>
+    <t>海思 麒麟 710</t>
+  </si>
+  <si>
+    <t>高通 骁龙636 八核 1.8GHz</t>
+  </si>
+  <si>
+    <t>高通 骁龙821（MSM8996 Pro）</t>
+  </si>
+  <si>
+    <t>高通骁龙660(2.2GHZ 八核)</t>
+  </si>
+  <si>
+    <t>高通 骁龙660 2.2GHz（大四核）1.8GHz（小四核）</t>
+  </si>
+  <si>
+    <t>高通 骁龙845（2.8GHz（大四核）1.7GHz（小四核））</t>
+  </si>
+  <si>
+    <t>高通骁龙 625</t>
+  </si>
+  <si>
+    <t>高通 骁龙800（MSM8974）（四核、2.3GHz）</t>
+  </si>
+  <si>
+    <t>联发科 Helio P22（MT6762） 2.0GHz（大四核）1.5GHz（小四核）</t>
+  </si>
+  <si>
+    <t>海思 Kirin 970 2.36GHz（大四核）1.8GHz（小四核）+微智核i7</t>
+  </si>
+  <si>
+    <t>高通 骁龙820（四核、1.8GHz）</t>
+  </si>
+  <si>
+    <t>Nvidia Tegra K1 ARM Cortex-A15（四核、1.8GHz）</t>
+  </si>
+  <si>
+    <t>联发科 MT6750（八核、1.5GHz）</t>
+  </si>
+  <si>
+    <t>高通 骁龙835（八核、2.45GHz）</t>
+  </si>
+  <si>
+    <t>联发科 HelioP10（八核、1.8GHz）</t>
+  </si>
+  <si>
+    <t>全志A31S ARM Cortex-A7（四核1GHz）</t>
+  </si>
+  <si>
+    <t>高通 骁龙410（MSM8916）（四核、1.2GHz）</t>
+  </si>
+  <si>
+    <t>苹果 A8+M8协处理器（双核、1.4GHz）</t>
+  </si>
+  <si>
+    <t>苹果 A7（双核）</t>
+  </si>
+  <si>
+    <t>苹果A8（双核）</t>
+  </si>
+  <si>
+    <t>苹果A5（双核、1GB）</t>
+  </si>
+  <si>
+    <t>苹果 A11+M11协处理器（六核、2.4GHz）</t>
+  </si>
+  <si>
+    <t>苹果 A8+M8协处理器(双核 1.4GHz)</t>
+  </si>
+  <si>
+    <t>苹果 A7+M7协处理器双核、1.3GHz）</t>
+  </si>
+  <si>
+    <t>苹果 A7+M7协处理器（双核、1.3GHz）</t>
+  </si>
+  <si>
+    <t>联发科 MT6595（2.2GHz（大四核）1.7GHz（小四核））</t>
+  </si>
+  <si>
+    <t>高通骁龙801（四核、2.5GHz）</t>
+  </si>
+  <si>
+    <t>MTK8312 ARM Cortex-A7（双核、1.3GHz）</t>
+  </si>
+  <si>
+    <t>Nvidia Tegra 3（四核、1.3GHz）</t>
+  </si>
+  <si>
+    <t>ARM架构（四核、2.3GHz）</t>
+  </si>
+  <si>
+    <t>高通 骁龙615（八核、1.5GHz）</t>
+  </si>
+  <si>
+    <t>高通 骁龙653（八核、1.8GHz）</t>
+  </si>
+  <si>
+    <t>联发科 Helio（八核、2.5GHz）</t>
+  </si>
+  <si>
+    <t>联发科MT6735（四核、1.3GHz）</t>
+  </si>
+  <si>
+    <t>高通骁龙625（八核、2.0GHz）</t>
+  </si>
+  <si>
+    <t>Nvidia Tegra4（四核、1.8GHz）</t>
+  </si>
+  <si>
+    <t>高通 骁龙660（2.2GHz（大四核）1.8GHz（小四核））</t>
+  </si>
+  <si>
+    <t>高通 骁龙425（八核、1.4GHz）</t>
+  </si>
+  <si>
+    <t>高通 骁龙435（八核、1.5GHz）</t>
+  </si>
+  <si>
+    <t>海思 Kirin950（八核、2.3GHz）</t>
+  </si>
+  <si>
+    <t>高通骁龙820（四核、1.8GHz）</t>
+  </si>
+  <si>
+    <t>三星 Exynos 7872（2.0GHz（大两核）1.6GHz（小四核））</t>
+  </si>
+  <si>
+    <t>海思 Kirin960（八核、2.4GHz）</t>
+  </si>
+  <si>
+    <t>高通骁龙435（八核、1.4GHz）</t>
+  </si>
+  <si>
+    <t>高通骁龙430（八核、1.4GHz）</t>
+  </si>
+  <si>
+    <t>高通 骁龙660AIE（2.2GHz（大四核）1.8GHz（小四核））</t>
+  </si>
+  <si>
+    <t>高通 骁龙660（八核、2.2GHz）</t>
+  </si>
+  <si>
+    <t>联发科 Helio P60（八核、2.0GHz）</t>
+  </si>
+  <si>
+    <t>高通 骁龙845（八核、2.8GHz）</t>
+  </si>
+  <si>
+    <t>高通 骁龙710（八核、2.2GHz）</t>
+  </si>
+  <si>
+    <t>海思 Kirin 655（八核、2.1GHz、1.7GHz）</t>
+  </si>
+  <si>
+    <t>高通 骁龙450B（八核、1.8GHz）</t>
+  </si>
+  <si>
+    <t>高通 骁龙410（MSM8916）</t>
+  </si>
+  <si>
+    <t>苹果 A12（六核）</t>
+  </si>
+  <si>
+    <t>高通 骁龙855</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t> 4GB+64GB</t>
+    <t>安卓</t>
+  </si>
+  <si>
+    <t>EMUI 9.1.0（Android 9）</t>
+  </si>
+  <si>
+    <t>Android 10</t>
+  </si>
+  <si>
+    <t>EMUI 9.1.1（Android p）</t>
+  </si>
+  <si>
+    <t>MIUI 10.2（基于Android 6.0）</t>
+  </si>
+  <si>
+    <t>iOS 13.4.1</t>
+  </si>
+  <si>
+    <t>ColorOS 5.2（Android 8.1.0)</t>
+  </si>
+  <si>
+    <t>MIUI 12.20.5.26（基于Android 10）</t>
+  </si>
+  <si>
+    <t>EMUI10（Android 10）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColorOS V6.0.1（基于Andriod 9） </t>
+  </si>
+  <si>
+    <t>iOS12.4.1</t>
+  </si>
+  <si>
+    <t>IOS 13.4</t>
+  </si>
+  <si>
+    <t>EMUI 8.0.0（Android 8.0.0）</t>
+  </si>
+  <si>
+    <t>MIUI 11.0.6.0（基于Android 9）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColorOS V7（基于Andriod 10） </t>
+  </si>
+  <si>
+    <t>ios 9.3.2</t>
+  </si>
+  <si>
+    <t>iOS 13.3</t>
+  </si>
+  <si>
+    <t>EMUI 10(Android 10.0.0)</t>
+  </si>
+  <si>
+    <t>ColorOS 5.2.1（Android 8.1.0）</t>
+  </si>
+  <si>
+    <t>EMUI 9.1.1（Android 9）</t>
+  </si>
+  <si>
+    <t>EMUI9.1.1（Android 9）</t>
+  </si>
+  <si>
+    <t>One UI 1.1（Android 9）</t>
+  </si>
+  <si>
+    <t>EMUI10.0（基于Android 10）</t>
+  </si>
+  <si>
+    <t>Android 9</t>
+  </si>
+  <si>
+    <t>IOS 13.2.2</t>
+  </si>
+  <si>
+    <t>EMUI 9.1.0（基于Android 9.0）</t>
+  </si>
+  <si>
+    <t>IOS 12.4</t>
+  </si>
+  <si>
+    <t>IOS 12.2</t>
+  </si>
+  <si>
+    <t>Android EMUI 9.1.0（Android 9）</t>
+  </si>
+  <si>
+    <t>IOS 11.4.1</t>
+  </si>
+  <si>
+    <t>Funtouch OS 4.0（基于Android 8.1.0）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColorOS V5.2（基于Andriod 8.1.0） </t>
+  </si>
+  <si>
+    <t>MIUI 10.2|稳定版（基于Android9）</t>
+  </si>
+  <si>
+    <t>EMUI 8.2.0（基于Android 8.1.0）</t>
+  </si>
+  <si>
+    <t>EMUI 9.0.1（基于Android 9.0)</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Android 8.1.0</t>
+  </si>
+  <si>
+    <t>IOS 12.1.2(16C104)</t>
+  </si>
+  <si>
+    <t>Android 8.0</t>
+  </si>
+  <si>
+    <t>Android 6.0.1</t>
+  </si>
+  <si>
+    <t>Android 6.0</t>
+  </si>
+  <si>
+    <t>Android  8.1.0</t>
+  </si>
+  <si>
+    <t>iOS 12.2</t>
+  </si>
+  <si>
+    <t>ios11.4.1(15G77)</t>
+  </si>
+  <si>
+    <t>Android 8.0.0</t>
+  </si>
+  <si>
+    <t>Android 9.0.0</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>IOS 8.1.3</t>
+  </si>
+  <si>
+    <t>EMUI 5.1(基于Android 7.0)</t>
+  </si>
+  <si>
+    <t>Android 4.4.4</t>
+  </si>
+  <si>
+    <t>Android 4.4.2</t>
+  </si>
+  <si>
+    <t>Android 5.1</t>
+  </si>
+  <si>
+    <t>ios 11.2.5</t>
+  </si>
+  <si>
+    <t>Android 7.1.1</t>
+  </si>
+  <si>
+    <t>iOS 12.1.4</t>
+  </si>
+  <si>
+    <t>ios 12.1</t>
+  </si>
+  <si>
+    <t>Android 7.0</t>
+  </si>
+  <si>
+    <t>IOS 11.0.3</t>
+  </si>
+  <si>
+    <t>Windows Phone 8.1</t>
+  </si>
+  <si>
+    <t>windows 10移动版</t>
+  </si>
+  <si>
+    <t>IOS 12.1.2</t>
+  </si>
+  <si>
+    <t>CoolOS 1.0（基于Android 4.2.2）</t>
+  </si>
+  <si>
+    <t>Android 5.1.1</t>
+  </si>
+  <si>
+    <t>Android 5.0.2</t>
+  </si>
+  <si>
+    <t>Android 8.1</t>
+  </si>
+  <si>
+    <t>Android4.2</t>
+  </si>
+  <si>
+    <t>CoolUI 5.5（基于Android 4.4）</t>
+  </si>
+  <si>
+    <t>IOS 9.0(13A344)</t>
+  </si>
+  <si>
+    <t>IOS 11.0.3(15A432)</t>
+  </si>
+  <si>
+    <t>IOS 9.2.1(13D15)</t>
+  </si>
+  <si>
+    <t>IOS 11.4(15f79)</t>
+  </si>
+  <si>
+    <t>ios 8.2(12D508)</t>
+  </si>
+  <si>
+    <t>ios 11.1(15B93)</t>
+  </si>
+  <si>
+    <t>iOS 12.3.1</t>
+  </si>
+  <si>
+    <t>IOS 10.3.3</t>
+  </si>
+  <si>
+    <t>ios 10.3.3</t>
+  </si>
+  <si>
+    <t>IOS 9.0.2</t>
+  </si>
+  <si>
+    <t>ios 10.1.1(14B100)</t>
+  </si>
+  <si>
+    <t>Flyme 4.0（基于Android 4.4.0）</t>
+  </si>
+  <si>
+    <t>MIUI 9.6|稳定版 (基于Android 6.0.1)</t>
+  </si>
+  <si>
+    <t>Andriod 4.2.0</t>
+  </si>
+  <si>
+    <t>nubia UI 3.5（基于Android 5.1.0）</t>
+  </si>
+  <si>
+    <t>Journey UI 1.0（基于Android 7.1）</t>
+  </si>
+  <si>
+    <t>amigo os 4.0.3s.3(S10正式版）</t>
+  </si>
+  <si>
+    <t>Flyme 4.5（基于Andriod5.1.0）</t>
+  </si>
+  <si>
+    <t>MIUI 8.1（基于Android 6.0.0）</t>
+  </si>
+  <si>
+    <t>Funtouch OS_3.1(基于Android7.1.2)</t>
+  </si>
+  <si>
+    <t>Android  6.0.1</t>
+  </si>
+  <si>
+    <t>ColorOS 3.0（基于Android 6.0.0）</t>
+  </si>
+  <si>
+    <t>EMUI 5.0(基于Android 7.0)</t>
+  </si>
+  <si>
+    <t>ColorOS V3.0(基于Android 6.0.1)</t>
+  </si>
+  <si>
+    <t>MIUI 7（基于Android 6.0.0）</t>
+  </si>
+  <si>
+    <t>Flyme 6.3.1.2A （基于Android 7.0）</t>
+  </si>
+  <si>
+    <t>EMUI 5.1（基于Android 7.0.0）</t>
+  </si>
+  <si>
+    <t>MIUI 10.1|稳定版 (基于Android 7.1.2)</t>
+  </si>
+  <si>
+    <t>Funtouch OS_2.6(基于Android 6.0.1)</t>
+  </si>
+  <si>
+    <t>Funtouch OS_4.0(基于Android 8.1.0)</t>
+  </si>
+  <si>
+    <t>ColorOS V5.0(基于Android 8.1.0)</t>
+  </si>
+  <si>
+    <t>Android  8.0.0</t>
+  </si>
+  <si>
+    <t>IOS 12.0(16A366)</t>
+  </si>
+  <si>
+    <t>4GB+64GB</t>
+  </si>
+  <si>
+    <t>128G</t>
+  </si>
+  <si>
+    <t>4GB</t>
+  </si>
+  <si>
+    <t>2GB</t>
+  </si>
+  <si>
+    <t>1GB</t>
+  </si>
+  <si>
+    <t>8英寸,</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>6.1 英寸,2340x1080</t>
+  </si>
+  <si>
+    <t>6.3英寸,3200x1800</t>
+  </si>
+  <si>
+    <t>6.39 英寸,1520x720</t>
+  </si>
+  <si>
+    <t>6.39英寸,1520x720</t>
+  </si>
+  <si>
+    <t>6.39英寸,1560 x 720</t>
+  </si>
+  <si>
+    <t>5.5英寸,1920x1080</t>
+  </si>
+  <si>
+    <t>6.2 4寸,2340x1080</t>
+  </si>
+  <si>
+    <t>6.39 英寸,2340x1080</t>
+  </si>
+  <si>
+    <t>6.59 英3,2340x1080</t>
+  </si>
+  <si>
+    <t>6.4 英寸,2340x1080</t>
+  </si>
+  <si>
+    <t>6.5 英寸,2688x1242</t>
+  </si>
+  <si>
+    <t>5.99英寸,1440x720</t>
+  </si>
+  <si>
+    <t>5.9英寸,1920x1080</t>
+  </si>
+  <si>
+    <t>6.3 英寸,2340x1080</t>
+  </si>
+  <si>
+    <t>6.4 英寸,2400x1080</t>
+  </si>
+  <si>
+    <t>4.7英寸,1334x750</t>
+  </si>
+  <si>
+    <t>6.1 英寸,1792X828</t>
+  </si>
+  <si>
+    <t>6.62英寸,2340x1080</t>
+  </si>
+  <si>
+    <t>6.2 英寸,1520x720</t>
+  </si>
+  <si>
+    <t>6.3 英寸,2400x1080</t>
+  </si>
+  <si>
+    <t>6.59 英寸,2340x1080</t>
+  </si>
+  <si>
+    <t>6.7 英寸,2400x1080</t>
+  </si>
+  <si>
+    <t>6.62英寸,2340 x 1080</t>
+  </si>
+  <si>
+    <t>5.7英寸,1920x1080</t>
+  </si>
+  <si>
+    <t>6.088英寸,1560x720</t>
+  </si>
+  <si>
+    <t>6.1 英寸,1972x828</t>
+  </si>
+  <si>
+    <t>6.1英寸,2340x1080</t>
+  </si>
+  <si>
+    <t>5.8英寸,2436x1125</t>
+  </si>
+  <si>
+    <t>6.28英寸,2280x1080</t>
+  </si>
+  <si>
+    <t>6.3 英寸,2340 x 1080</t>
+  </si>
+  <si>
+    <t>6.5英寸,2340x1080</t>
+  </si>
+  <si>
+    <t>5.84英寸,2280x1080</t>
+  </si>
+  <si>
+    <t>6.9英寸,2160x1080</t>
+  </si>
+  <si>
+    <t>5 英寸,1920x1080</t>
+  </si>
+  <si>
+    <t>6.257英寸,2280x1080</t>
+  </si>
+  <si>
+    <t>5.99英寸,2160x1080</t>
+  </si>
+  <si>
+    <t>6.2 英寸,2960x1440</t>
+  </si>
+  <si>
+    <t>5.9 英寸,720x1520</t>
+  </si>
+  <si>
+    <t>4.95英寸,1920x1080</t>
+  </si>
+  <si>
+    <t>6.22英寸,1520x720</t>
+  </si>
+  <si>
+    <t>5.15英寸,1920x1080</t>
+  </si>
+  <si>
+    <t>5英寸,1280x720</t>
+  </si>
+  <si>
+    <t>7.85英寸,1024x768</t>
+  </si>
+  <si>
+    <t>5.5英寸,960x540</t>
+  </si>
+  <si>
+    <t>9.7英寸,2048x1536</t>
+  </si>
+  <si>
+    <t>7.9英寸,2048x1536</t>
+  </si>
+  <si>
+    <t>4英寸,1136x640</t>
+  </si>
+  <si>
+    <t>5.36英寸,1920x1152</t>
+  </si>
+  <si>
+    <t>5英寸,1920x1080</t>
+  </si>
+  <si>
+    <t>7英寸,1024x600</t>
+  </si>
+  <si>
+    <t>7英寸,1280x720</t>
+  </si>
+  <si>
+    <t>8.4英寸,2560x1600</t>
+  </si>
+  <si>
+    <t>5.5英寸,1280x720</t>
+  </si>
+  <si>
+    <t>6.01英寸,2160x1080</t>
+  </si>
+  <si>
+    <t>5.2英寸,1280x720</t>
+  </si>
+  <si>
+    <t>6英寸,1920x1080</t>
+  </si>
+  <si>
+    <t>5.7英寸,1440x720</t>
+  </si>
+  <si>
+    <t>5.7英寸,2560x1440</t>
+  </si>
+  <si>
+    <t>5.1英寸,1920x1080</t>
+  </si>
+  <si>
+    <t>5.88英寸,2244x1080</t>
+  </si>
+  <si>
+    <t>6.2英寸,1520x720</t>
+  </si>
+  <si>
+    <t>6.42英寸,2340x1080</t>
+  </si>
+  <si>
+    <t>6.5英寸,2688x1242</t>
+  </si>
+  <si>
+    <t>18:70:3B:E1:12:24</t>
+  </si>
+  <si>
+    <t>6c:d7:1f:76:72:a7</t>
+  </si>
+  <si>
+    <t>80:ED:2C:31:64:8D</t>
+  </si>
+  <si>
+    <t>88:A4:79:39:4B:ED</t>
+  </si>
+  <si>
+    <t>38:37:8B:3C:96:41</t>
+  </si>
+  <si>
+    <t>D0:FF:98:57:00:D8</t>
+  </si>
+  <si>
+    <t>4c:63:71:50:3c:37</t>
+  </si>
+  <si>
+    <t>b8:c9:b5:42:42:53</t>
+  </si>
+  <si>
+    <t>DC:41:5F:00:AC:34</t>
+  </si>
+  <si>
+    <t>FC:18:3C:29:99:2F</t>
+  </si>
+  <si>
+    <t>F0:E4:A2:50:9E:4D</t>
+  </si>
+  <si>
+    <t>5c:66:6c:3d:5f:b9</t>
+  </si>
+  <si>
+    <t>A0:41:47:2E:A6:F6</t>
+  </si>
+  <si>
+    <t>34:B2:0A:76:60:0B</t>
+  </si>
+  <si>
+    <t>34:B2:0A:76:67:E9</t>
+  </si>
+  <si>
+    <t>34:B2:0A:1A:AA:FF</t>
+  </si>
+  <si>
+    <t>34:B2:0A:1A:A6:57</t>
+  </si>
+  <si>
+    <t>34:B2:0A:3E:12:4E</t>
+  </si>
+  <si>
+    <t>44:55:C4:F1:D7:59</t>
+  </si>
+  <si>
+    <t>34:B2:0A:1A:A6:2F</t>
+  </si>
+  <si>
+    <t>10:E9:53:9D:C4:E3</t>
+  </si>
+  <si>
+    <t>34:B2:0A:3E:0F:EA</t>
+  </si>
+  <si>
+    <t>34:B2:0A:76:6C:02</t>
+  </si>
+  <si>
+    <t>34:B2:0A:76:62:1C</t>
+  </si>
+  <si>
+    <t>34:B2:0A:76:69:66</t>
+  </si>
+  <si>
+    <t>34:B2:0A:1A:B0:22</t>
+  </si>
+  <si>
+    <t>8C:E5:C0:38:0B:A3</t>
+  </si>
+  <si>
+    <t>8C:E5:C0:3A:EF:BB</t>
+  </si>
+  <si>
+    <t>8C:E5:C0:39:0A:FD</t>
+  </si>
+  <si>
+    <t>10:E9:53:BF:5A:4F</t>
+  </si>
+  <si>
+    <t>20:32:6C:FF:5E:FA</t>
+  </si>
+  <si>
+    <t>B8:7B:C5:C4:27:A4</t>
+  </si>
+  <si>
+    <t>88:f8:72:a6:cc:7c</t>
+  </si>
+  <si>
+    <t>30:57:14:04:00:D0</t>
+  </si>
+  <si>
+    <t>40:BC:60:68:36:17</t>
+  </si>
+  <si>
+    <t>48:3f:e9:2a:74:e7</t>
+  </si>
+  <si>
+    <t>24:da:33:eb:7e:cd</t>
+  </si>
+  <si>
+    <t>38:89:2C:47:CA:F8</t>
+  </si>
+  <si>
+    <t>2C:20:0B:E0:31:D2</t>
+  </si>
+  <si>
+    <t>5C:09:47:BE:7E:A5</t>
+  </si>
+  <si>
+    <t>28:31:66:a5:9a:53</t>
+  </si>
+  <si>
+    <t>d4:67:d3:6d:a2:35</t>
+  </si>
+  <si>
+    <t>70:3a:51:80:37:01</t>
+  </si>
+  <si>
+    <t>0C:B5:27:F4:92:C2</t>
+  </si>
+  <si>
+    <t>A4:9B:4F:FA:5C:76</t>
+  </si>
+  <si>
+    <t>70:bb:e9:f9:88:cd</t>
+  </si>
+  <si>
+    <t>80:7a:bf:6f:21:01</t>
+  </si>
+  <si>
+    <t>40:26:19:6d:23:7c</t>
+  </si>
+  <si>
+    <t>A0:3B:E3:4C:F7:B5</t>
+  </si>
+  <si>
+    <t>fc:be:7b:07:3c:9f</t>
+  </si>
+  <si>
+    <t>2c:5d:34:53:5a:1f</t>
+  </si>
+  <si>
+    <t>04:50:da:18:d1:ef</t>
+  </si>
+  <si>
+    <t>8C:45:00:B7:14:78</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ac:37:43:49:b7:8b</t>
+  </si>
+  <si>
+    <t>64:bc:0c:64:25:10</t>
+  </si>
+  <si>
+    <t>78:f8:82:ce:34:43</t>
+  </si>
+  <si>
+    <t>20:F7:7C:D1:B5:13</t>
+  </si>
+  <si>
+    <t>38:53:9C:7A:89:9E</t>
+  </si>
+  <si>
+    <t>c4:98:80:7c:1b:23</t>
+  </si>
+  <si>
+    <t>A0:57:E3:D3:D6:62</t>
+  </si>
+  <si>
+    <t>A0:57:E3:6F:65:E5</t>
+  </si>
+  <si>
+    <t>B0:9F:BA:8D:AE:98</t>
+  </si>
+  <si>
+    <t>14:9d：09:2b：56:3e</t>
+  </si>
+  <si>
+    <t>64:09:80:d4:7c:a7</t>
+  </si>
+  <si>
+    <t>b0:df:3a:d4:0e:59</t>
+  </si>
+  <si>
+    <t>4c:18:9A:93:21:F5</t>
+  </si>
+  <si>
+    <t>4c:49:e3:c7:f9:77</t>
+  </si>
+  <si>
+    <t>34:7C:25:35:39:41</t>
+  </si>
+  <si>
+    <t>a0:57:e3:b3:1d:60</t>
+  </si>
+  <si>
+    <t>9c:2e:a1:bb:6c:e1</t>
+  </si>
+  <si>
+    <t>EC:89:14:F2:42:CA</t>
+  </si>
+  <si>
+    <t>70:47:e9:ad:b9:9b</t>
+  </si>
+  <si>
+    <t>18:F1:D8:9E:62:E2</t>
+  </si>
+  <si>
+    <t>34:08:BC:05:51:76</t>
+  </si>
+  <si>
+    <t>60:F1:89:1E:7B:F6</t>
+  </si>
+  <si>
+    <t>98:6F:60:C2:F9:97</t>
+  </si>
+  <si>
+    <t>54:25:EA40:B8:48</t>
+  </si>
+  <si>
+    <t>04:52:F3:15:88:4F</t>
+  </si>
+  <si>
+    <t>80:c5:e6:9a:f9:74</t>
+  </si>
+  <si>
+    <t>B4:E1:C4:DB:46:48</t>
+  </si>
+  <si>
+    <t>6C:72:E7:68:31:13</t>
+  </si>
+  <si>
+    <t>64:09:80:D5:1F:2F</t>
+  </si>
+  <si>
+    <t>20:82:C0:00:69:27</t>
+  </si>
+  <si>
+    <t>B0:E2:35:8F:49:7A</t>
+  </si>
+  <si>
+    <t>B0:E2:35:78:15:01</t>
+  </si>
+  <si>
+    <t>F4:8E:92:3A:65:37</t>
+  </si>
+  <si>
+    <t>18:E2:9F:14:BB:9A</t>
+  </si>
+  <si>
+    <t>7C:7D:3D:AA:39:1D</t>
+  </si>
+  <si>
+    <t>84:DB:AC:21:8D:AB</t>
+  </si>
+  <si>
+    <t>94:87:e0:5b:26:82</t>
+  </si>
+  <si>
+    <t>2C:57:31:54:50:4C</t>
+  </si>
+  <si>
+    <t>44:9E:F9:D5:07:29</t>
+  </si>
+  <si>
+    <t>44:66:fc:6c:ce:bd</t>
+  </si>
+  <si>
+    <t>AC:07:5F:6E:8D:52</t>
+  </si>
+  <si>
+    <t>AC:CF:5C:73:18:F7</t>
+  </si>
+  <si>
+    <t>AC:CF:5C:73:7E:37</t>
+  </si>
+  <si>
+    <t>AC:CF:5C:73:71:34</t>
+  </si>
+  <si>
+    <t>04:52:f3:4e:10:85</t>
+  </si>
+  <si>
+    <t>84:8E:0C:99:5D:FB</t>
+  </si>
+  <si>
+    <t>34:08:BC:67:8F:76</t>
+  </si>
+  <si>
+    <t>E0:AC:CB:EC:47:97</t>
+  </si>
+  <si>
+    <t>34:A3:95:7C:33:C3</t>
+  </si>
+  <si>
+    <t>60:D9:C7:01:6A:2C</t>
+  </si>
+  <si>
+    <t>F0:F6:1C:18:D7:FE</t>
+  </si>
+  <si>
+    <t>a0:86:c6:95:89:ad</t>
+  </si>
+  <si>
+    <t>FC:C2:DE:08:A0:FA</t>
+  </si>
+  <si>
+    <t>34:78:d7:d2:ea:a9</t>
+  </si>
+  <si>
+    <t>0c:1d:af:5d:8d:99</t>
+  </si>
+  <si>
+    <t>70:47:e9:58:a2:05</t>
+  </si>
+  <si>
+    <t>f4:70:ab:81:9b:1e</t>
+  </si>
+  <si>
+    <t>70:78:8B:53:85:C6</t>
+  </si>
+  <si>
+    <t>1c:67:58:BC:B3:F2</t>
+  </si>
+  <si>
+    <t>88:d5:0c:e4:5d:51</t>
+  </si>
+  <si>
+    <t>90：f0:52:51：EE：D4</t>
+  </si>
+  <si>
+    <t>00:ec:0a:7f:34:c4</t>
+  </si>
+  <si>
+    <t>70:d9:23:71:f2:a4</t>
+  </si>
+  <si>
+    <t>44:9e:f9:d1:53:a1</t>
+  </si>
+  <si>
+    <t>50:3c:ea:cf:07:67</t>
+  </si>
+  <si>
+    <t>8c:25:05:e7:fd:bd</t>
+  </si>
+  <si>
+    <t>9C:2e:a1:b0:c0:b3</t>
+  </si>
+  <si>
+    <t>9c:2e:a1:02:58:f1</t>
+  </si>
+  <si>
+    <t>84:be:52:52:44:59</t>
+  </si>
+  <si>
+    <t>54:dc:1d:a2:e5:6c</t>
+  </si>
+  <si>
+    <t>b4:cb:57:15:4a:61</t>
+  </si>
+  <si>
+    <t>FC:2A:9C:4F:27:44</t>
+  </si>
+  <si>
+    <t>fc:2a:9c:58:32:ef</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1614,10 +2771,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1636,7 +2794,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1711,6 +2869,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1746,6 +2921,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1921,11 +3113,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1936,12 +3128,16 @@
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="20.125" customWidth="1"/>
     <col min="8" max="8" width="26.375" customWidth="1"/>
-    <col min="10" max="10" width="40.75" customWidth="1"/>
-    <col min="11" max="11" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="24.125" customWidth="1"/>
+    <col min="12" max="15" width="17.75" customWidth="1"/>
+    <col min="16" max="16" width="17.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.5" customWidth="1"/>
+    <col min="19" max="19" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>498</v>
       </c>
@@ -1979,19 +3175,16 @@
         <v>503</v>
       </c>
       <c r="N1" t="s">
+        <v>506</v>
+      </c>
+      <c r="O1" t="s">
         <v>504</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="P1" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2023,13 +3216,17 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>44090</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+      <c r="N2" t="s">
+        <v>706</v>
+      </c>
+      <c r="P2" s="3">
+        <v>44090.622974537036</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2061,16 +3258,20 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>509</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>44091</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+      <c r="M3" t="s">
+        <v>700</v>
+      </c>
+      <c r="N3" t="s">
+        <v>706</v>
+      </c>
+      <c r="P3" s="3">
+        <v>44091.429548611108</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2101,8 +3302,21 @@
       <c r="J4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K4" t="s">
+        <v>600</v>
+      </c>
+      <c r="M4" t="s">
+        <v>700</v>
+      </c>
+      <c r="N4" t="s">
+        <v>706</v>
+      </c>
+      <c r="P4" s="3">
+        <v>44091.428912037038</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2133,8 +3347,21 @@
       <c r="J5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K5" t="s">
+        <v>600</v>
+      </c>
+      <c r="M5" t="s">
+        <v>701</v>
+      </c>
+      <c r="N5" t="s">
+        <v>706</v>
+      </c>
+      <c r="P5" s="3">
+        <v>44082.744050925925</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2165,8 +3392,21 @@
       <c r="J6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K6" t="s">
+        <v>600</v>
+      </c>
+      <c r="M6" t="s">
+        <v>701</v>
+      </c>
+      <c r="N6" t="s">
+        <v>706</v>
+      </c>
+      <c r="P6" s="3">
+        <v>44082.743136574078</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2197,8 +3437,21 @@
       <c r="J7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K7" t="s">
+        <v>600</v>
+      </c>
+      <c r="M7" t="s">
+        <v>701</v>
+      </c>
+      <c r="N7" t="s">
+        <v>706</v>
+      </c>
+      <c r="P7" s="3">
+        <v>44082.740601851852</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2229,8 +3482,21 @@
       <c r="J8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K8" t="s">
+        <v>600</v>
+      </c>
+      <c r="M8" t="s">
+        <v>701</v>
+      </c>
+      <c r="N8" t="s">
+        <v>706</v>
+      </c>
+      <c r="P8" s="3">
+        <v>44082.739155092589</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2261,8 +3527,21 @@
       <c r="J9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K9" t="s">
+        <v>600</v>
+      </c>
+      <c r="M9" t="s">
+        <v>701</v>
+      </c>
+      <c r="N9" t="s">
+        <v>706</v>
+      </c>
+      <c r="P9" s="3">
+        <v>44082.738483796296</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2293,8 +3572,21 @@
       <c r="J10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K10" t="s">
+        <v>600</v>
+      </c>
+      <c r="M10" t="s">
+        <v>701</v>
+      </c>
+      <c r="N10" t="s">
+        <v>706</v>
+      </c>
+      <c r="P10" s="3">
+        <v>44082.736516203702</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2325,8 +3617,27 @@
       <c r="J11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K11" t="s">
+        <v>601</v>
+      </c>
+      <c r="L11" t="s">
+        <v>507</v>
+      </c>
+      <c r="M11" t="s">
+        <v>508</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="O11" t="s">
+        <v>509</v>
+      </c>
+      <c r="P11" s="3">
+        <v>44061.395520833335</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2354,8 +3665,24 @@
       <c r="I12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K12" t="s">
+        <v>602</v>
+      </c>
+      <c r="L12" t="s">
+        <v>599</v>
+      </c>
+      <c r="M12" t="s">
+        <v>516</v>
+      </c>
+      <c r="N12" t="s">
+        <v>708</v>
+      </c>
+      <c r="P12" s="3">
+        <v>44042.728321759256</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2383,8 +3710,24 @@
       <c r="I13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K13" t="s">
+        <v>603</v>
+      </c>
+      <c r="L13" t="s">
+        <v>520</v>
+      </c>
+      <c r="M13" t="s">
+        <v>702</v>
+      </c>
+      <c r="N13" t="s">
+        <v>709</v>
+      </c>
+      <c r="P13" s="3">
+        <v>44033.472638888888</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2412,8 +3755,24 @@
       <c r="I14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K14" t="s">
+        <v>603</v>
+      </c>
+      <c r="L14" t="s">
+        <v>520</v>
+      </c>
+      <c r="M14" t="s">
+        <v>702</v>
+      </c>
+      <c r="N14" t="s">
+        <v>710</v>
+      </c>
+      <c r="P14" s="3">
+        <v>44033.471990740742</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2441,8 +3800,24 @@
       <c r="I15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K15" t="s">
+        <v>603</v>
+      </c>
+      <c r="L15" t="s">
+        <v>520</v>
+      </c>
+      <c r="M15" t="s">
+        <v>702</v>
+      </c>
+      <c r="N15" t="s">
+        <v>709</v>
+      </c>
+      <c r="P15" s="3">
+        <v>44033.471215277779</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2470,8 +3845,24 @@
       <c r="I16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K16" t="s">
+        <v>603</v>
+      </c>
+      <c r="L16" t="s">
+        <v>520</v>
+      </c>
+      <c r="M16" t="s">
+        <v>702</v>
+      </c>
+      <c r="N16" t="s">
+        <v>711</v>
+      </c>
+      <c r="P16" s="3">
+        <v>44033.468761574077</v>
+      </c>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2491,8 +3882,27 @@
       <c r="I17" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K17" t="s">
+        <v>604</v>
+      </c>
+      <c r="L17" t="s">
+        <v>510</v>
+      </c>
+      <c r="M17" t="s">
+        <v>511</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="O17" t="s">
+        <v>512</v>
+      </c>
+      <c r="P17" s="3">
+        <v>44033.409224537034</v>
+      </c>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2520,8 +3930,27 @@
       <c r="I18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K18" t="s">
+        <v>605</v>
+      </c>
+      <c r="L18" t="s">
+        <v>513</v>
+      </c>
+      <c r="M18" t="s">
+        <v>511</v>
+      </c>
+      <c r="N18" t="s">
+        <v>712</v>
+      </c>
+      <c r="O18" t="s">
+        <v>514</v>
+      </c>
+      <c r="P18" s="3">
+        <v>44020.479444444441</v>
+      </c>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2549,8 +3978,27 @@
       <c r="I19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K19" t="s">
+        <v>606</v>
+      </c>
+      <c r="L19" t="s">
+        <v>515</v>
+      </c>
+      <c r="M19" t="s">
+        <v>516</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="O19" t="s">
+        <v>517</v>
+      </c>
+      <c r="P19" s="3">
+        <v>44020.475324074076</v>
+      </c>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2578,8 +4026,27 @@
       <c r="I20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K20" t="s">
+        <v>607</v>
+      </c>
+      <c r="L20" t="s">
+        <v>518</v>
+      </c>
+      <c r="M20" t="s">
+        <v>508</v>
+      </c>
+      <c r="N20" t="s">
+        <v>714</v>
+      </c>
+      <c r="O20" t="s">
+        <v>519</v>
+      </c>
+      <c r="P20" s="3">
+        <v>44020.471006944441</v>
+      </c>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2607,8 +4074,27 @@
       <c r="I21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K21" t="s">
+        <v>608</v>
+      </c>
+      <c r="L21" t="s">
+        <v>521</v>
+      </c>
+      <c r="M21" t="s">
+        <v>508</v>
+      </c>
+      <c r="N21" t="s">
+        <v>715</v>
+      </c>
+      <c r="O21" t="s">
+        <v>770</v>
+      </c>
+      <c r="P21" s="3">
+        <v>44020.468692129631</v>
+      </c>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2636,8 +4122,27 @@
       <c r="I22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K22" t="s">
+        <v>609</v>
+      </c>
+      <c r="L22" t="s">
+        <v>522</v>
+      </c>
+      <c r="M22" t="s">
+        <v>516</v>
+      </c>
+      <c r="N22" t="s">
+        <v>716</v>
+      </c>
+      <c r="O22" t="s">
+        <v>771</v>
+      </c>
+      <c r="P22" s="3">
+        <v>44020.465925925928</v>
+      </c>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2665,8 +4170,27 @@
       <c r="I23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K23" t="s">
+        <v>610</v>
+      </c>
+      <c r="L23" t="s">
+        <v>523</v>
+      </c>
+      <c r="M23" t="s">
+        <v>703</v>
+      </c>
+      <c r="N23" t="s">
+        <v>712</v>
+      </c>
+      <c r="O23" t="s">
+        <v>772</v>
+      </c>
+      <c r="P23" s="3">
+        <v>44020.463877314818</v>
+      </c>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2694,8 +4218,27 @@
       <c r="I24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K24" t="s">
+        <v>611</v>
+      </c>
+      <c r="L24" t="s">
+        <v>524</v>
+      </c>
+      <c r="M24" t="s">
+        <v>702</v>
+      </c>
+      <c r="N24" t="s">
+        <v>717</v>
+      </c>
+      <c r="O24" t="s">
+        <v>773</v>
+      </c>
+      <c r="P24" s="3">
+        <v>44020.459131944444</v>
+      </c>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2726,8 +4269,27 @@
       <c r="J25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K25" t="s">
+        <v>612</v>
+      </c>
+      <c r="L25" t="s">
+        <v>525</v>
+      </c>
+      <c r="M25" t="s">
+        <v>511</v>
+      </c>
+      <c r="N25" t="s">
+        <v>718</v>
+      </c>
+      <c r="O25" t="s">
+        <v>774</v>
+      </c>
+      <c r="P25" s="3">
+        <v>43969.65697916667</v>
+      </c>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2750,8 +4312,27 @@
       <c r="J26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K26" t="s">
+        <v>601</v>
+      </c>
+      <c r="L26" t="s">
+        <v>526</v>
+      </c>
+      <c r="M26" t="s">
+        <v>702</v>
+      </c>
+      <c r="N26" t="s">
+        <v>719</v>
+      </c>
+      <c r="O26" t="s">
+        <v>775</v>
+      </c>
+      <c r="P26" s="3">
+        <v>43969.644652777781</v>
+      </c>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2779,8 +4360,27 @@
       <c r="I27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K27" t="s">
+        <v>613</v>
+      </c>
+      <c r="L27" t="s">
+        <v>527</v>
+      </c>
+      <c r="M27" t="s">
+        <v>516</v>
+      </c>
+      <c r="N27" t="s">
+        <v>720</v>
+      </c>
+      <c r="O27" t="s">
+        <v>776</v>
+      </c>
+      <c r="P27" s="3">
+        <v>43969.640798611108</v>
+      </c>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2811,8 +4411,27 @@
       <c r="J28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K28" t="s">
+        <v>614</v>
+      </c>
+      <c r="L28" t="s">
+        <v>528</v>
+      </c>
+      <c r="M28" t="s">
+        <v>508</v>
+      </c>
+      <c r="N28" t="s">
+        <v>721</v>
+      </c>
+      <c r="O28" t="s">
+        <v>777</v>
+      </c>
+      <c r="P28" s="3">
+        <v>43969.627511574072</v>
+      </c>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2835,8 +4454,27 @@
       <c r="J29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K29" t="s">
+        <v>615</v>
+      </c>
+      <c r="L29" t="s">
+        <v>529</v>
+      </c>
+      <c r="M29" t="s">
+        <v>704</v>
+      </c>
+      <c r="N29" t="s">
+        <v>722</v>
+      </c>
+      <c r="O29" t="s">
+        <v>778</v>
+      </c>
+      <c r="P29" s="3">
+        <v>43937.45652777778</v>
+      </c>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2858,8 +4496,27 @@
       <c r="J30" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K30" t="s">
+        <v>616</v>
+      </c>
+      <c r="L30" t="s">
+        <v>530</v>
+      </c>
+      <c r="M30" t="s">
+        <v>511</v>
+      </c>
+      <c r="N30" t="s">
+        <v>723</v>
+      </c>
+      <c r="O30" t="s">
+        <v>779</v>
+      </c>
+      <c r="P30" s="3">
+        <v>43937.437488425923</v>
+      </c>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2878,8 +4535,27 @@
       <c r="I31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K31" t="s">
+        <v>617</v>
+      </c>
+      <c r="L31" t="s">
+        <v>531</v>
+      </c>
+      <c r="M31" t="s">
+        <v>508</v>
+      </c>
+      <c r="N31" t="s">
+        <v>724</v>
+      </c>
+      <c r="O31" t="s">
+        <v>780</v>
+      </c>
+      <c r="P31" s="3">
+        <v>43936.636400462965</v>
+      </c>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2898,8 +4574,27 @@
       <c r="I32" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K32" t="s">
+        <v>618</v>
+      </c>
+      <c r="L32" t="s">
+        <v>532</v>
+      </c>
+      <c r="M32" t="s">
+        <v>511</v>
+      </c>
+      <c r="N32" t="s">
+        <v>725</v>
+      </c>
+      <c r="O32" t="s">
+        <v>781</v>
+      </c>
+      <c r="P32" s="3">
+        <v>43917.598680555559</v>
+      </c>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2921,8 +4616,27 @@
       <c r="J33" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K33" t="s">
+        <v>619</v>
+      </c>
+      <c r="L33" t="s">
+        <v>533</v>
+      </c>
+      <c r="M33" t="s">
+        <v>702</v>
+      </c>
+      <c r="N33" t="s">
+        <v>726</v>
+      </c>
+      <c r="O33" t="s">
+        <v>782</v>
+      </c>
+      <c r="P33" s="3">
+        <v>43908.487430555557</v>
+      </c>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2953,8 +4667,27 @@
       <c r="J34" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K34" t="s">
+        <v>601</v>
+      </c>
+      <c r="L34" t="s">
+        <v>507</v>
+      </c>
+      <c r="M34" t="s">
+        <v>516</v>
+      </c>
+      <c r="N34" t="s">
+        <v>727</v>
+      </c>
+      <c r="O34" t="s">
+        <v>783</v>
+      </c>
+      <c r="P34" s="3">
+        <v>43909.485231481478</v>
+      </c>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2985,8 +4718,27 @@
       <c r="J35" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K35" t="s">
+        <v>601</v>
+      </c>
+      <c r="L35" t="s">
+        <v>507</v>
+      </c>
+      <c r="M35" t="s">
+        <v>516</v>
+      </c>
+      <c r="N35" t="s">
+        <v>727</v>
+      </c>
+      <c r="O35" t="s">
+        <v>784</v>
+      </c>
+      <c r="P35" s="3">
+        <v>43909.482928240737</v>
+      </c>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3017,8 +4769,27 @@
       <c r="J36" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K36" t="s">
+        <v>601</v>
+      </c>
+      <c r="L36" t="s">
+        <v>507</v>
+      </c>
+      <c r="M36" t="s">
+        <v>516</v>
+      </c>
+      <c r="N36" t="s">
+        <v>727</v>
+      </c>
+      <c r="O36" t="s">
+        <v>785</v>
+      </c>
+      <c r="P36" s="3">
+        <v>43909.480300925927</v>
+      </c>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3049,8 +4820,27 @@
       <c r="J37" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K37" t="s">
+        <v>601</v>
+      </c>
+      <c r="L37" t="s">
+        <v>507</v>
+      </c>
+      <c r="M37" t="s">
+        <v>516</v>
+      </c>
+      <c r="N37" t="s">
+        <v>727</v>
+      </c>
+      <c r="O37" t="s">
+        <v>786</v>
+      </c>
+      <c r="P37" s="3">
+        <v>43909.465081018519</v>
+      </c>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3081,8 +4871,27 @@
       <c r="J38" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K38" t="s">
+        <v>601</v>
+      </c>
+      <c r="L38" t="s">
+        <v>507</v>
+      </c>
+      <c r="M38" t="s">
+        <v>516</v>
+      </c>
+      <c r="N38" t="s">
+        <v>727</v>
+      </c>
+      <c r="O38" t="s">
+        <v>787</v>
+      </c>
+      <c r="P38" s="3">
+        <v>43909.454618055555</v>
+      </c>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3113,8 +4922,27 @@
       <c r="J39" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K39" t="s">
+        <v>601</v>
+      </c>
+      <c r="L39" t="s">
+        <v>507</v>
+      </c>
+      <c r="M39" t="s">
+        <v>516</v>
+      </c>
+      <c r="N39" t="s">
+        <v>727</v>
+      </c>
+      <c r="O39" t="s">
+        <v>788</v>
+      </c>
+      <c r="P39" s="3">
+        <v>43909.450856481482</v>
+      </c>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3145,8 +4973,27 @@
       <c r="J40" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K40" t="s">
+        <v>601</v>
+      </c>
+      <c r="L40" t="s">
+        <v>507</v>
+      </c>
+      <c r="M40" t="s">
+        <v>516</v>
+      </c>
+      <c r="N40" t="s">
+        <v>727</v>
+      </c>
+      <c r="O40" t="s">
+        <v>789</v>
+      </c>
+      <c r="P40" s="3">
+        <v>43909.445902777778</v>
+      </c>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3177,8 +5024,27 @@
       <c r="J41" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K41" t="s">
+        <v>601</v>
+      </c>
+      <c r="L41" t="s">
+        <v>507</v>
+      </c>
+      <c r="M41" t="s">
+        <v>516</v>
+      </c>
+      <c r="N41" t="s">
+        <v>727</v>
+      </c>
+      <c r="O41" t="s">
+        <v>790</v>
+      </c>
+      <c r="P41" s="3">
+        <v>43909.435868055552</v>
+      </c>
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3209,8 +5075,27 @@
       <c r="J42" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K42" t="s">
+        <v>601</v>
+      </c>
+      <c r="L42" t="s">
+        <v>507</v>
+      </c>
+      <c r="M42" t="s">
+        <v>516</v>
+      </c>
+      <c r="N42" t="s">
+        <v>727</v>
+      </c>
+      <c r="O42" t="s">
+        <v>791</v>
+      </c>
+      <c r="P42" s="3">
+        <v>43909.43204861111</v>
+      </c>
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3241,8 +5126,27 @@
       <c r="J43" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K43" t="s">
+        <v>601</v>
+      </c>
+      <c r="L43" t="s">
+        <v>507</v>
+      </c>
+      <c r="M43" t="s">
+        <v>516</v>
+      </c>
+      <c r="N43" t="s">
+        <v>727</v>
+      </c>
+      <c r="O43" t="s">
+        <v>792</v>
+      </c>
+      <c r="P43" s="3">
+        <v>43909.431076388886</v>
+      </c>
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3273,8 +5177,27 @@
       <c r="J44" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K44" t="s">
+        <v>601</v>
+      </c>
+      <c r="L44" t="s">
+        <v>507</v>
+      </c>
+      <c r="M44" t="s">
+        <v>516</v>
+      </c>
+      <c r="N44" t="s">
+        <v>727</v>
+      </c>
+      <c r="O44" t="s">
+        <v>793</v>
+      </c>
+      <c r="P44" s="3">
+        <v>43909.424988425926</v>
+      </c>
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3305,8 +5228,27 @@
       <c r="J45" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K45" t="s">
+        <v>601</v>
+      </c>
+      <c r="L45" t="s">
+        <v>507</v>
+      </c>
+      <c r="M45" t="s">
+        <v>516</v>
+      </c>
+      <c r="N45" t="s">
+        <v>727</v>
+      </c>
+      <c r="O45" t="s">
+        <v>794</v>
+      </c>
+      <c r="P45" s="3">
+        <v>43909.409583333334</v>
+      </c>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3337,8 +5279,27 @@
       <c r="J46" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K46" t="s">
+        <v>620</v>
+      </c>
+      <c r="L46" t="s">
+        <v>507</v>
+      </c>
+      <c r="M46" t="s">
+        <v>516</v>
+      </c>
+      <c r="N46" t="s">
+        <v>727</v>
+      </c>
+      <c r="O46" t="s">
+        <v>795</v>
+      </c>
+      <c r="P46" s="3">
+        <v>43909.405833333331</v>
+      </c>
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3369,8 +5330,27 @@
       <c r="J47" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K47" t="s">
+        <v>621</v>
+      </c>
+      <c r="L47" t="s">
+        <v>534</v>
+      </c>
+      <c r="M47" t="s">
+        <v>508</v>
+      </c>
+      <c r="N47" t="s">
+        <v>728</v>
+      </c>
+      <c r="O47" t="s">
+        <v>796</v>
+      </c>
+      <c r="P47" s="3">
+        <v>43909.345254629632</v>
+      </c>
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3401,8 +5381,27 @@
       <c r="J48" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K48" t="s">
+        <v>621</v>
+      </c>
+      <c r="L48" t="s">
+        <v>534</v>
+      </c>
+      <c r="M48" t="s">
+        <v>508</v>
+      </c>
+      <c r="N48" t="s">
+        <v>728</v>
+      </c>
+      <c r="O48" t="s">
+        <v>797</v>
+      </c>
+      <c r="P48" s="3">
+        <v>43909.331423611111</v>
+      </c>
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3433,8 +5432,27 @@
       <c r="J49" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K49" t="s">
+        <v>621</v>
+      </c>
+      <c r="L49" t="s">
+        <v>534</v>
+      </c>
+      <c r="M49" t="s">
+        <v>508</v>
+      </c>
+      <c r="N49" t="s">
+        <v>728</v>
+      </c>
+      <c r="O49" t="s">
+        <v>798</v>
+      </c>
+      <c r="P49" s="3">
+        <v>43909.327951388892</v>
+      </c>
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3462,8 +5480,27 @@
       <c r="I50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K50" t="s">
+        <v>622</v>
+      </c>
+      <c r="L50" t="s">
+        <v>535</v>
+      </c>
+      <c r="M50" t="s">
+        <v>508</v>
+      </c>
+      <c r="N50" t="s">
+        <v>729</v>
+      </c>
+      <c r="O50" t="s">
+        <v>799</v>
+      </c>
+      <c r="P50" s="3">
+        <v>43908.596134259256</v>
+      </c>
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3491,8 +5528,24 @@
       <c r="I51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K51" t="s">
+        <v>617</v>
+      </c>
+      <c r="L51" t="s">
+        <v>536</v>
+      </c>
+      <c r="M51" t="s">
+        <v>516</v>
+      </c>
+      <c r="N51" t="s">
+        <v>724</v>
+      </c>
+      <c r="P51" s="3">
+        <v>43851.550879629627</v>
+      </c>
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3523,8 +5576,27 @@
       <c r="J52" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K52" t="s">
+        <v>623</v>
+      </c>
+      <c r="L52" t="s">
+        <v>537</v>
+      </c>
+      <c r="M52" t="s">
+        <v>703</v>
+      </c>
+      <c r="N52" t="s">
+        <v>730</v>
+      </c>
+      <c r="O52" t="s">
+        <v>800</v>
+      </c>
+      <c r="P52" s="3">
+        <v>43822.655173611114</v>
+      </c>
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3555,8 +5627,27 @@
       <c r="J53" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K53" t="s">
+        <v>624</v>
+      </c>
+      <c r="L53" t="s">
+        <v>524</v>
+      </c>
+      <c r="M53" t="s">
+        <v>702</v>
+      </c>
+      <c r="N53" t="s">
+        <v>723</v>
+      </c>
+      <c r="O53" t="s">
+        <v>801</v>
+      </c>
+      <c r="P53" s="3">
+        <v>43822.649421296293</v>
+      </c>
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3579,8 +5670,27 @@
       <c r="J54" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K54" t="s">
+        <v>625</v>
+      </c>
+      <c r="L54" t="s">
+        <v>538</v>
+      </c>
+      <c r="M54" t="s">
+        <v>511</v>
+      </c>
+      <c r="N54" t="s">
+        <v>731</v>
+      </c>
+      <c r="O54" t="s">
+        <v>802</v>
+      </c>
+      <c r="P54" s="3">
+        <v>43717.619988425926</v>
+      </c>
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3602,8 +5712,27 @@
       <c r="J55" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K55" t="s">
+        <v>626</v>
+      </c>
+      <c r="L55" t="s">
+        <v>530</v>
+      </c>
+      <c r="M55" t="s">
+        <v>511</v>
+      </c>
+      <c r="N55" t="s">
+        <v>732</v>
+      </c>
+      <c r="O55" t="s">
+        <v>803</v>
+      </c>
+      <c r="P55" s="3">
+        <v>43717.612858796296</v>
+      </c>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3634,8 +5763,27 @@
       <c r="J56" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K56" t="s">
+        <v>627</v>
+      </c>
+      <c r="L56" t="s">
+        <v>530</v>
+      </c>
+      <c r="M56" t="s">
+        <v>702</v>
+      </c>
+      <c r="N56" t="s">
+        <v>717</v>
+      </c>
+      <c r="O56" t="s">
+        <v>804</v>
+      </c>
+      <c r="P56" s="3">
+        <v>43669.631712962961</v>
+      </c>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3663,8 +5811,27 @@
       <c r="I57" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K57" t="s">
+        <v>628</v>
+      </c>
+      <c r="L57" t="s">
+        <v>539</v>
+      </c>
+      <c r="M57" t="s">
+        <v>508</v>
+      </c>
+      <c r="N57" t="s">
+        <v>707</v>
+      </c>
+      <c r="O57" t="s">
+        <v>805</v>
+      </c>
+      <c r="P57" s="3">
+        <v>43668.682210648149</v>
+      </c>
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3684,8 +5851,27 @@
       <c r="I58" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K58" t="s">
+        <v>601</v>
+      </c>
+      <c r="L58" t="s">
+        <v>521</v>
+      </c>
+      <c r="M58" t="s">
+        <v>508</v>
+      </c>
+      <c r="N58" t="s">
+        <v>733</v>
+      </c>
+      <c r="O58" t="s">
+        <v>806</v>
+      </c>
+      <c r="P58" s="3">
+        <v>43668.657511574071</v>
+      </c>
+      <c r="R58" s="3"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3716,8 +5902,27 @@
       <c r="J59" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K59" t="s">
+        <v>629</v>
+      </c>
+      <c r="L59" t="s">
+        <v>540</v>
+      </c>
+      <c r="M59" t="s">
+        <v>511</v>
+      </c>
+      <c r="N59" t="s">
+        <v>734</v>
+      </c>
+      <c r="O59" t="s">
+        <v>807</v>
+      </c>
+      <c r="P59" s="3">
+        <v>43636.641701388886</v>
+      </c>
+      <c r="R59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3748,8 +5953,27 @@
       <c r="J60" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K60" t="s">
+        <v>627</v>
+      </c>
+      <c r="L60" t="s">
+        <v>513</v>
+      </c>
+      <c r="M60" t="s">
+        <v>511</v>
+      </c>
+      <c r="N60" t="s">
+        <v>712</v>
+      </c>
+      <c r="O60" t="s">
+        <v>808</v>
+      </c>
+      <c r="P60" s="3">
+        <v>43636.639456018522</v>
+      </c>
+      <c r="R60" s="3"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3780,8 +6004,27 @@
       <c r="J61" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K61" t="s">
+        <v>627</v>
+      </c>
+      <c r="L61" t="s">
+        <v>540</v>
+      </c>
+      <c r="M61" t="s">
+        <v>511</v>
+      </c>
+      <c r="N61" t="s">
+        <v>712</v>
+      </c>
+      <c r="O61" t="s">
+        <v>809</v>
+      </c>
+      <c r="P61" s="3">
+        <v>43636.63585648148</v>
+      </c>
+      <c r="R61" s="3"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3801,8 +6044,27 @@
       <c r="I62" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K62" t="s">
+        <v>630</v>
+      </c>
+      <c r="L62" t="s">
+        <v>541</v>
+      </c>
+      <c r="M62" t="s">
+        <v>516</v>
+      </c>
+      <c r="N62" t="s">
+        <v>735</v>
+      </c>
+      <c r="O62" t="s">
+        <v>810</v>
+      </c>
+      <c r="P62" s="3">
+        <v>43578.899548611109</v>
+      </c>
+      <c r="R62" s="3"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3833,8 +6095,27 @@
       <c r="J63" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K63" t="s">
+        <v>631</v>
+      </c>
+      <c r="L63" t="s">
+        <v>542</v>
+      </c>
+      <c r="M63" t="s">
+        <v>702</v>
+      </c>
+      <c r="N63" t="s">
+        <v>725</v>
+      </c>
+      <c r="O63" t="s">
+        <v>811</v>
+      </c>
+      <c r="P63" s="3">
+        <v>43578.897604166668</v>
+      </c>
+      <c r="R63" s="3"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3853,8 +6134,27 @@
       <c r="I64" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K64" t="s">
+        <v>632</v>
+      </c>
+      <c r="L64" t="s">
+        <v>543</v>
+      </c>
+      <c r="M64" t="s">
+        <v>516</v>
+      </c>
+      <c r="N64" t="s">
+        <v>736</v>
+      </c>
+      <c r="O64" t="s">
+        <v>812</v>
+      </c>
+      <c r="P64" s="3">
+        <v>43578.895173611112</v>
+      </c>
+      <c r="R64" s="3"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3873,8 +6173,27 @@
       <c r="I65" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K65" t="s">
+        <v>633</v>
+      </c>
+      <c r="L65" t="s">
+        <v>544</v>
+      </c>
+      <c r="M65" t="s">
+        <v>702</v>
+      </c>
+      <c r="N65" t="s">
+        <v>737</v>
+      </c>
+      <c r="O65" t="s">
+        <v>813</v>
+      </c>
+      <c r="P65" s="3">
+        <v>43578.891793981478</v>
+      </c>
+      <c r="R65" s="3"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3893,8 +6212,27 @@
       <c r="I66" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K66" t="s">
+        <v>634</v>
+      </c>
+      <c r="L66" t="s">
+        <v>545</v>
+      </c>
+      <c r="M66" t="s">
+        <v>516</v>
+      </c>
+      <c r="N66" t="s">
+        <v>738</v>
+      </c>
+      <c r="O66" t="s">
+        <v>814</v>
+      </c>
+      <c r="P66" s="3">
+        <v>43578.888981481483</v>
+      </c>
+      <c r="R66" s="3"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3913,8 +6251,27 @@
       <c r="I67" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K67" t="s">
+        <v>635</v>
+      </c>
+      <c r="L67" t="s">
+        <v>546</v>
+      </c>
+      <c r="M67" t="s">
+        <v>702</v>
+      </c>
+      <c r="N67" t="s">
+        <v>739</v>
+      </c>
+      <c r="O67" t="s">
+        <v>815</v>
+      </c>
+      <c r="P67" s="3">
+        <v>43571.793368055558</v>
+      </c>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3945,8 +6302,27 @@
       <c r="J68" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K68" t="s">
+        <v>636</v>
+      </c>
+      <c r="L68" t="s">
+        <v>547</v>
+      </c>
+      <c r="M68" t="s">
+        <v>702</v>
+      </c>
+      <c r="N68" t="s">
+        <v>740</v>
+      </c>
+      <c r="O68" t="s">
+        <v>816</v>
+      </c>
+      <c r="P68" s="3">
+        <v>43454.665439814817</v>
+      </c>
+      <c r="R68" s="3"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3977,8 +6353,27 @@
       <c r="J69" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K69" t="s">
+        <v>637</v>
+      </c>
+      <c r="L69" t="s">
+        <v>540</v>
+      </c>
+      <c r="M69" t="s">
+        <v>511</v>
+      </c>
+      <c r="N69" t="s">
+        <v>712</v>
+      </c>
+      <c r="O69" t="s">
+        <v>817</v>
+      </c>
+      <c r="P69" s="3">
+        <v>43489.486817129633</v>
+      </c>
+      <c r="R69" s="3"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4009,8 +6404,27 @@
       <c r="J70" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K70" t="s">
+        <v>627</v>
+      </c>
+      <c r="L70" t="s">
+        <v>513</v>
+      </c>
+      <c r="M70" t="s">
+        <v>511</v>
+      </c>
+      <c r="N70" t="s">
+        <v>712</v>
+      </c>
+      <c r="O70" t="s">
+        <v>818</v>
+      </c>
+      <c r="P70" s="3">
+        <v>43489.479699074072</v>
+      </c>
+      <c r="R70" s="3"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4041,8 +6455,27 @@
       <c r="J71" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K71" t="s">
+        <v>636</v>
+      </c>
+      <c r="L71" t="s">
+        <v>548</v>
+      </c>
+      <c r="M71" t="s">
+        <v>702</v>
+      </c>
+      <c r="N71" t="s">
+        <v>741</v>
+      </c>
+      <c r="O71" t="s">
+        <v>819</v>
+      </c>
+      <c r="P71" s="3">
+        <v>43483.601168981484</v>
+      </c>
+      <c r="R71" s="3"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4062,8 +6495,27 @@
       <c r="I72" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K72" t="s">
+        <v>636</v>
+      </c>
+      <c r="L72" t="s">
+        <v>532</v>
+      </c>
+      <c r="M72" t="s">
+        <v>702</v>
+      </c>
+      <c r="N72" t="s">
+        <v>725</v>
+      </c>
+      <c r="O72" t="s">
+        <v>820</v>
+      </c>
+      <c r="P72" s="3">
+        <v>43483.598321759258</v>
+      </c>
+      <c r="R72" s="3"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4085,8 +6537,27 @@
       <c r="J73" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K73" t="s">
+        <v>636</v>
+      </c>
+      <c r="L73" t="s">
+        <v>549</v>
+      </c>
+      <c r="M73" t="s">
+        <v>516</v>
+      </c>
+      <c r="N73" t="s">
+        <v>742</v>
+      </c>
+      <c r="O73" t="s">
+        <v>821</v>
+      </c>
+      <c r="P73" s="3">
+        <v>43483.594699074078</v>
+      </c>
+      <c r="R73" s="3"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4108,8 +6579,27 @@
       <c r="J74" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K74" t="s">
+        <v>638</v>
+      </c>
+      <c r="L74" t="s">
+        <v>550</v>
+      </c>
+      <c r="M74" t="s">
+        <v>516</v>
+      </c>
+      <c r="N74" t="s">
+        <v>743</v>
+      </c>
+      <c r="O74" t="s">
+        <v>822</v>
+      </c>
+      <c r="P74" s="3">
+        <v>43483.591134259259</v>
+      </c>
+      <c r="R74" s="3"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4140,8 +6630,24 @@
       <c r="J75" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K75" t="s">
+        <v>635</v>
+      </c>
+      <c r="L75" t="s">
+        <v>551</v>
+      </c>
+      <c r="M75" t="s">
+        <v>702</v>
+      </c>
+      <c r="N75" t="s">
+        <v>744</v>
+      </c>
+      <c r="P75" s="3">
+        <v>43472.644826388889</v>
+      </c>
+      <c r="R75" s="3"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4163,8 +6669,27 @@
       <c r="J76" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K76" t="s">
+        <v>638</v>
+      </c>
+      <c r="L76" t="s">
+        <v>552</v>
+      </c>
+      <c r="M76" t="s">
+        <v>703</v>
+      </c>
+      <c r="N76" t="s">
+        <v>745</v>
+      </c>
+      <c r="O76" t="s">
+        <v>823</v>
+      </c>
+      <c r="P76" s="3">
+        <v>43431.735335648147</v>
+      </c>
+      <c r="R76" s="3"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4195,8 +6720,27 @@
       <c r="J77" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K77" t="s">
+        <v>639</v>
+      </c>
+      <c r="L77" t="s">
+        <v>552</v>
+      </c>
+      <c r="M77" t="s">
+        <v>703</v>
+      </c>
+      <c r="N77" t="s">
+        <v>745</v>
+      </c>
+      <c r="O77" t="s">
+        <v>824</v>
+      </c>
+      <c r="P77" s="3">
+        <v>43431.735081018516</v>
+      </c>
+      <c r="R77" s="3"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4215,8 +6759,27 @@
       <c r="I78" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K78" t="s">
+        <v>640</v>
+      </c>
+      <c r="L78" t="s">
+        <v>552</v>
+      </c>
+      <c r="M78" t="s">
+        <v>703</v>
+      </c>
+      <c r="N78" t="s">
+        <v>745</v>
+      </c>
+      <c r="O78" t="s">
+        <v>825</v>
+      </c>
+      <c r="P78" s="3">
+        <v>43431.734837962962</v>
+      </c>
+      <c r="R78" s="3"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4235,8 +6798,27 @@
       <c r="I79" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K79" t="s">
+        <v>641</v>
+      </c>
+      <c r="L79" t="s">
+        <v>553</v>
+      </c>
+      <c r="M79" t="s">
+        <v>702</v>
+      </c>
+      <c r="N79" t="s">
+        <v>746</v>
+      </c>
+      <c r="O79" t="s">
+        <v>826</v>
+      </c>
+      <c r="P79" s="3">
+        <v>43404.69767361111</v>
+      </c>
+      <c r="R79" s="3"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4267,8 +6849,27 @@
       <c r="J80" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K80" t="s">
+        <v>642</v>
+      </c>
+      <c r="L80" t="s">
+        <v>530</v>
+      </c>
+      <c r="M80" t="s">
+        <v>702</v>
+      </c>
+      <c r="N80" t="s">
+        <v>734</v>
+      </c>
+      <c r="O80" t="s">
+        <v>827</v>
+      </c>
+      <c r="P80" s="3">
+        <v>43404.69568287037</v>
+      </c>
+      <c r="R80" s="3"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4299,8 +6900,27 @@
       <c r="J81" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K81" t="s">
+        <v>643</v>
+      </c>
+      <c r="L81" t="s">
+        <v>540</v>
+      </c>
+      <c r="M81" t="s">
+        <v>511</v>
+      </c>
+      <c r="N81" t="s">
+        <v>712</v>
+      </c>
+      <c r="O81" t="s">
+        <v>828</v>
+      </c>
+      <c r="P81" s="3">
+        <v>43404.671064814815</v>
+      </c>
+      <c r="R81" s="3"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4331,8 +6951,27 @@
       <c r="J82" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K82" t="s">
+        <v>644</v>
+      </c>
+      <c r="L82" t="s">
+        <v>554</v>
+      </c>
+      <c r="M82" t="s">
+        <v>702</v>
+      </c>
+      <c r="N82" t="s">
+        <v>742</v>
+      </c>
+      <c r="O82" t="s">
+        <v>829</v>
+      </c>
+      <c r="P82" s="3">
+        <v>43404.668356481481</v>
+      </c>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4363,8 +7002,27 @@
       <c r="J83" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K83" t="s">
+        <v>645</v>
+      </c>
+      <c r="L83" t="s">
+        <v>554</v>
+      </c>
+      <c r="M83" t="s">
+        <v>702</v>
+      </c>
+      <c r="N83" t="s">
+        <v>742</v>
+      </c>
+      <c r="O83" t="s">
+        <v>830</v>
+      </c>
+      <c r="P83" s="3">
+        <v>43404.652025462965</v>
+      </c>
+      <c r="R83" s="3"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4390,8 +7048,15 @@
       <c r="I84" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N84" t="s">
+        <v>706</v>
+      </c>
+      <c r="P84" s="3">
+        <v>41940</v>
+      </c>
+      <c r="R84" s="3"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4417,8 +7082,15 @@
       <c r="I85" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N85" t="s">
+        <v>706</v>
+      </c>
+      <c r="P85" s="3">
+        <v>42865</v>
+      </c>
+      <c r="R85" s="3"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4437,8 +7109,18 @@
       <c r="I86" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K86" t="s">
+        <v>635</v>
+      </c>
+      <c r="N86" t="s">
+        <v>706</v>
+      </c>
+      <c r="P86" s="3">
+        <v>42121</v>
+      </c>
+      <c r="R86" s="3"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4460,8 +7142,18 @@
       <c r="J87" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K87" t="s">
+        <v>646</v>
+      </c>
+      <c r="N87" t="s">
+        <v>706</v>
+      </c>
+      <c r="P87" s="3">
+        <v>42401</v>
+      </c>
+      <c r="R87" s="3"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4483,8 +7175,18 @@
       <c r="J88" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K88" t="s">
+        <v>646</v>
+      </c>
+      <c r="N88" t="s">
+        <v>706</v>
+      </c>
+      <c r="P88" s="3">
+        <v>42401</v>
+      </c>
+      <c r="R88" s="3"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4509,8 +7211,15 @@
       <c r="I89" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N89" t="s">
+        <v>706</v>
+      </c>
+      <c r="P89" s="3">
+        <v>42354</v>
+      </c>
+      <c r="R89" s="3"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4535,8 +7244,15 @@
       <c r="I90" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N90" t="s">
+        <v>706</v>
+      </c>
+      <c r="P90" s="3">
+        <v>41789</v>
+      </c>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4564,8 +7280,21 @@
       <c r="I91" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K91" t="s">
+        <v>647</v>
+      </c>
+      <c r="N91" t="s">
+        <v>706</v>
+      </c>
+      <c r="O91" t="s">
+        <v>831</v>
+      </c>
+      <c r="P91" s="3">
+        <v>41789</v>
+      </c>
+      <c r="R91" s="3"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4593,8 +7322,21 @@
       <c r="I92" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K92" t="s">
+        <v>648</v>
+      </c>
+      <c r="N92" t="s">
+        <v>706</v>
+      </c>
+      <c r="O92" t="s">
+        <v>832</v>
+      </c>
+      <c r="P92" s="3">
+        <v>42887</v>
+      </c>
+      <c r="R92" s="3"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4625,8 +7367,24 @@
       <c r="J93" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K93" t="s">
+        <v>635</v>
+      </c>
+      <c r="L93" t="s">
+        <v>555</v>
+      </c>
+      <c r="M93" t="s">
+        <v>511</v>
+      </c>
+      <c r="N93" t="s">
+        <v>747</v>
+      </c>
+      <c r="P93" s="3">
+        <v>42887</v>
+      </c>
+      <c r="R93" s="3"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4655,8 +7413,15 @@
       <c r="J94" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N94" t="s">
+        <v>706</v>
+      </c>
+      <c r="P94" s="3">
+        <v>42121</v>
+      </c>
+      <c r="R94" s="3"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4685,8 +7450,15 @@
       <c r="J95" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N95" t="s">
+        <v>706</v>
+      </c>
+      <c r="P95" s="3">
+        <v>42121</v>
+      </c>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4708,8 +7480,15 @@
       <c r="J96" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N96" t="s">
+        <v>706</v>
+      </c>
+      <c r="P96" s="3">
+        <v>42121</v>
+      </c>
+      <c r="R96" s="3"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4731,8 +7510,15 @@
       <c r="J97" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N97" t="s">
+        <v>706</v>
+      </c>
+      <c r="P97" s="3">
+        <v>41696</v>
+      </c>
+      <c r="R97" s="3"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4754,8 +7540,15 @@
       <c r="J98" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N98" t="s">
+        <v>706</v>
+      </c>
+      <c r="P98" s="3">
+        <v>42122</v>
+      </c>
+      <c r="R98" s="3"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4780,8 +7573,15 @@
       <c r="I99" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N99" t="s">
+        <v>706</v>
+      </c>
+      <c r="P99" s="3">
+        <v>41803</v>
+      </c>
+      <c r="R99" s="3"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4806,8 +7606,15 @@
       <c r="I100" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N100" t="s">
+        <v>706</v>
+      </c>
+      <c r="P100" s="3">
+        <v>42522</v>
+      </c>
+      <c r="R100" s="3"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4826,8 +7633,24 @@
       <c r="I101" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K101" t="s">
+        <v>649</v>
+      </c>
+      <c r="L101" t="s">
+        <v>556</v>
+      </c>
+      <c r="N101" t="s">
+        <v>706</v>
+      </c>
+      <c r="O101" t="s">
+        <v>833</v>
+      </c>
+      <c r="P101" s="3">
+        <v>41940</v>
+      </c>
+      <c r="R101" s="3"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4846,8 +7669,21 @@
       <c r="I102" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K102" t="s">
+        <v>650</v>
+      </c>
+      <c r="N102" t="s">
+        <v>705</v>
+      </c>
+      <c r="O102" t="s">
+        <v>834</v>
+      </c>
+      <c r="P102" s="3">
+        <v>41942</v>
+      </c>
+      <c r="R102" s="3"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4875,8 +7711,27 @@
       <c r="I103" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K103" t="s">
+        <v>651</v>
+      </c>
+      <c r="L103" t="s">
+        <v>557</v>
+      </c>
+      <c r="M103" t="s">
+        <v>703</v>
+      </c>
+      <c r="N103" t="s">
+        <v>748</v>
+      </c>
+      <c r="O103" t="s">
+        <v>835</v>
+      </c>
+      <c r="P103" s="3">
+        <v>42887</v>
+      </c>
+      <c r="R103" s="3"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4904,8 +7759,27 @@
       <c r="I104" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K104" t="s">
+        <v>644</v>
+      </c>
+      <c r="L104" t="s">
+        <v>558</v>
+      </c>
+      <c r="M104" t="s">
+        <v>516</v>
+      </c>
+      <c r="N104" t="s">
+        <v>747</v>
+      </c>
+      <c r="O104" t="s">
+        <v>836</v>
+      </c>
+      <c r="P104" s="3">
+        <v>42887</v>
+      </c>
+      <c r="R104" s="3"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4931,8 +7805,15 @@
       <c r="I105" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N105" t="s">
+        <v>706</v>
+      </c>
+      <c r="P105" s="3">
+        <v>42002</v>
+      </c>
+      <c r="R105" s="3"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4958,8 +7839,15 @@
       <c r="I106" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N106" t="s">
+        <v>706</v>
+      </c>
+      <c r="P106" s="3">
+        <v>41943</v>
+      </c>
+      <c r="R106" s="3"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4984,8 +7872,15 @@
       <c r="I107" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N107" t="s">
+        <v>706</v>
+      </c>
+      <c r="P107" s="3">
+        <v>41789</v>
+      </c>
+      <c r="R107" s="3"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5010,8 +7905,15 @@
       <c r="I108" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N108" t="s">
+        <v>706</v>
+      </c>
+      <c r="P108" s="3">
+        <v>41788</v>
+      </c>
+      <c r="R108" s="3"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5036,8 +7938,15 @@
       <c r="I109" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N109" t="s">
+        <v>706</v>
+      </c>
+      <c r="P109" s="3">
+        <v>42272</v>
+      </c>
+      <c r="R109" s="3"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5062,8 +7971,15 @@
       <c r="I110" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N110" t="s">
+        <v>706</v>
+      </c>
+      <c r="P110" s="3">
+        <v>41848</v>
+      </c>
+      <c r="R110" s="3"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5088,8 +8004,15 @@
       <c r="I111" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="N111" t="s">
+        <v>706</v>
+      </c>
+      <c r="P111" s="3">
+        <v>42208</v>
+      </c>
+      <c r="R111" s="3"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5117,8 +8040,21 @@
       <c r="I112" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K112" t="s">
+        <v>652</v>
+      </c>
+      <c r="N112" t="s">
+        <v>706</v>
+      </c>
+      <c r="O112" t="s">
+        <v>837</v>
+      </c>
+      <c r="P112" s="3">
+        <v>42865</v>
+      </c>
+      <c r="R112" s="3"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5146,8 +8082,21 @@
       <c r="I113" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K113" t="s">
+        <v>623</v>
+      </c>
+      <c r="N113" t="s">
+        <v>706</v>
+      </c>
+      <c r="O113" t="s">
+        <v>838</v>
+      </c>
+      <c r="P113" s="3">
+        <v>42865</v>
+      </c>
+      <c r="R113" s="3"/>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5175,8 +8124,21 @@
       <c r="I114" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K114" t="s">
+        <v>623</v>
+      </c>
+      <c r="N114" t="s">
+        <v>706</v>
+      </c>
+      <c r="O114" t="s">
+        <v>839</v>
+      </c>
+      <c r="P114" s="3">
+        <v>43230</v>
+      </c>
+      <c r="R114" s="3"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5204,8 +8166,21 @@
       <c r="I115" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K115" t="s">
+        <v>635</v>
+      </c>
+      <c r="N115" t="s">
+        <v>706</v>
+      </c>
+      <c r="O115" t="s">
+        <v>840</v>
+      </c>
+      <c r="P115" s="3">
+        <v>43230</v>
+      </c>
+      <c r="R115" s="3"/>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5233,8 +8208,21 @@
       <c r="I116" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K116" t="s">
+        <v>653</v>
+      </c>
+      <c r="N116" t="s">
+        <v>706</v>
+      </c>
+      <c r="O116" t="s">
+        <v>841</v>
+      </c>
+      <c r="P116" s="3">
+        <v>43230</v>
+      </c>
+      <c r="R116" s="3"/>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5262,8 +8250,21 @@
       <c r="I117" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K117" t="s">
+        <v>654</v>
+      </c>
+      <c r="N117" t="s">
+        <v>706</v>
+      </c>
+      <c r="O117" t="s">
+        <v>842</v>
+      </c>
+      <c r="P117" s="3">
+        <v>43383</v>
+      </c>
+      <c r="R117" s="3"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5294,8 +8295,18 @@
       <c r="J118" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K118" t="s">
+        <v>646</v>
+      </c>
+      <c r="N118" t="s">
+        <v>706</v>
+      </c>
+      <c r="P118" s="3">
+        <v>43018</v>
+      </c>
+      <c r="R118" s="3"/>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5326,8 +8337,21 @@
       <c r="J119" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K119" t="s">
+        <v>655</v>
+      </c>
+      <c r="N119" t="s">
+        <v>706</v>
+      </c>
+      <c r="O119" t="s">
+        <v>843</v>
+      </c>
+      <c r="P119" s="3">
+        <v>43110</v>
+      </c>
+      <c r="R119" s="3"/>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5358,8 +8382,21 @@
       <c r="J120" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K120" t="s">
+        <v>656</v>
+      </c>
+      <c r="N120" t="s">
+        <v>706</v>
+      </c>
+      <c r="O120" t="s">
+        <v>844</v>
+      </c>
+      <c r="P120" s="3">
+        <v>42865</v>
+      </c>
+      <c r="R120" s="3"/>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5385,8 +8422,21 @@
       <c r="I121" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K121" t="s">
+        <v>651</v>
+      </c>
+      <c r="N121" t="s">
+        <v>706</v>
+      </c>
+      <c r="O121" t="s">
+        <v>845</v>
+      </c>
+      <c r="P121" s="3">
+        <v>42887</v>
+      </c>
+      <c r="R121" s="3"/>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5406,8 +8456,21 @@
       <c r="I122" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K122" t="s">
+        <v>656</v>
+      </c>
+      <c r="N122" t="s">
+        <v>706</v>
+      </c>
+      <c r="O122" t="s">
+        <v>846</v>
+      </c>
+      <c r="P122" s="3">
+        <v>42887</v>
+      </c>
+      <c r="R122" s="3"/>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5432,8 +8495,21 @@
       <c r="I123" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K123" t="s">
+        <v>657</v>
+      </c>
+      <c r="N123" t="s">
+        <v>706</v>
+      </c>
+      <c r="O123" t="s">
+        <v>847</v>
+      </c>
+      <c r="P123" s="3">
+        <v>42461</v>
+      </c>
+      <c r="R123" s="3"/>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5455,8 +8531,18 @@
       <c r="J124" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K124" t="s">
+        <v>635</v>
+      </c>
+      <c r="N124" t="s">
+        <v>706</v>
+      </c>
+      <c r="P124" s="3">
+        <v>42401</v>
+      </c>
+      <c r="R124" s="3"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5478,8 +8564,21 @@
       <c r="J125" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K125" t="s">
+        <v>658</v>
+      </c>
+      <c r="N125" t="s">
+        <v>706</v>
+      </c>
+      <c r="O125" t="s">
+        <v>848</v>
+      </c>
+      <c r="P125" s="3">
+        <v>42401</v>
+      </c>
+      <c r="R125" s="3"/>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5510,8 +8609,21 @@
       <c r="J126" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K126" t="s">
+        <v>659</v>
+      </c>
+      <c r="N126" t="s">
+        <v>706</v>
+      </c>
+      <c r="O126" t="s">
+        <v>849</v>
+      </c>
+      <c r="P126" s="3">
+        <v>42401</v>
+      </c>
+      <c r="R126" s="3"/>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5539,8 +8651,21 @@
       <c r="I127" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K127" t="s">
+        <v>660</v>
+      </c>
+      <c r="N127" t="s">
+        <v>706</v>
+      </c>
+      <c r="O127" t="s">
+        <v>850</v>
+      </c>
+      <c r="P127" s="3">
+        <v>42401</v>
+      </c>
+      <c r="R127" s="3"/>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5566,8 +8691,21 @@
       <c r="I128" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K128" t="s">
+        <v>649</v>
+      </c>
+      <c r="N128" t="s">
+        <v>706</v>
+      </c>
+      <c r="O128" t="s">
+        <v>851</v>
+      </c>
+      <c r="P128" s="3">
+        <v>41865</v>
+      </c>
+      <c r="R128" s="3"/>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5595,8 +8733,18 @@
       <c r="I129" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K129" t="s">
+        <v>635</v>
+      </c>
+      <c r="N129" t="s">
+        <v>706</v>
+      </c>
+      <c r="P129" s="3">
+        <v>41943</v>
+      </c>
+      <c r="R129" s="3"/>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5615,8 +8763,18 @@
       <c r="I130" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K130" t="s">
+        <v>635</v>
+      </c>
+      <c r="N130" t="s">
+        <v>706</v>
+      </c>
+      <c r="P130" s="3">
+        <v>41865</v>
+      </c>
+      <c r="R130" s="3"/>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5635,8 +8793,18 @@
       <c r="I131" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K131" t="s">
+        <v>635</v>
+      </c>
+      <c r="N131" t="s">
+        <v>706</v>
+      </c>
+      <c r="P131" s="3">
+        <v>42272</v>
+      </c>
+      <c r="R131" s="3"/>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5655,8 +8823,18 @@
       <c r="I132" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K132" t="s">
+        <v>635</v>
+      </c>
+      <c r="N132" t="s">
+        <v>706</v>
+      </c>
+      <c r="P132" s="3">
+        <v>42272</v>
+      </c>
+      <c r="R132" s="3"/>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5678,8 +8856,18 @@
       <c r="J133" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K133" t="s">
+        <v>635</v>
+      </c>
+      <c r="N133" t="s">
+        <v>706</v>
+      </c>
+      <c r="P133" s="3">
+        <v>42272</v>
+      </c>
+      <c r="R133" s="3"/>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5698,8 +8886,18 @@
       <c r="I134" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K134" t="s">
+        <v>661</v>
+      </c>
+      <c r="N134" t="s">
+        <v>706</v>
+      </c>
+      <c r="P134" s="3">
+        <v>42272</v>
+      </c>
+      <c r="R134" s="3"/>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5721,8 +8919,18 @@
       <c r="J135" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K135" t="s">
+        <v>635</v>
+      </c>
+      <c r="N135" t="s">
+        <v>706</v>
+      </c>
+      <c r="P135" s="3">
+        <v>42272</v>
+      </c>
+      <c r="R135" s="3"/>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5741,8 +8949,18 @@
       <c r="I136" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K136" t="s">
+        <v>646</v>
+      </c>
+      <c r="N136" t="s">
+        <v>706</v>
+      </c>
+      <c r="P136" s="3">
+        <v>41789</v>
+      </c>
+      <c r="R136" s="3"/>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5770,8 +8988,21 @@
       <c r="I137" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K137" t="s">
+        <v>639</v>
+      </c>
+      <c r="N137" t="s">
+        <v>706</v>
+      </c>
+      <c r="O137" t="s">
+        <v>852</v>
+      </c>
+      <c r="P137" s="3">
+        <v>42552</v>
+      </c>
+      <c r="R137" s="3"/>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5799,8 +9030,21 @@
       <c r="I138" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K138" t="s">
+        <v>662</v>
+      </c>
+      <c r="N138" t="s">
+        <v>706</v>
+      </c>
+      <c r="O138" t="s">
+        <v>853</v>
+      </c>
+      <c r="P138" s="3">
+        <v>42552</v>
+      </c>
+      <c r="R138" s="3"/>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5823,8 +9067,21 @@
       <c r="J139" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K139" t="s">
+        <v>639</v>
+      </c>
+      <c r="N139" t="s">
+        <v>706</v>
+      </c>
+      <c r="O139" t="s">
+        <v>854</v>
+      </c>
+      <c r="P139" s="3">
+        <v>42552</v>
+      </c>
+      <c r="R139" s="3"/>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5850,8 +9107,21 @@
       <c r="I140" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K140" t="s">
+        <v>650</v>
+      </c>
+      <c r="N140" t="s">
+        <v>706</v>
+      </c>
+      <c r="O140" t="s">
+        <v>855</v>
+      </c>
+      <c r="P140" s="3">
+        <v>42208</v>
+      </c>
+      <c r="R140" s="3"/>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5870,8 +9140,21 @@
       <c r="I141" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K141" t="s">
+        <v>662</v>
+      </c>
+      <c r="N141" t="s">
+        <v>706</v>
+      </c>
+      <c r="O141" t="s">
+        <v>856</v>
+      </c>
+      <c r="P141" s="3">
+        <v>42663</v>
+      </c>
+      <c r="R141" s="3"/>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5890,8 +9173,21 @@
       <c r="I142" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K142" t="s">
+        <v>663</v>
+      </c>
+      <c r="N142" t="s">
+        <v>706</v>
+      </c>
+      <c r="O142" t="s">
+        <v>857</v>
+      </c>
+      <c r="P142" s="3">
+        <v>42552</v>
+      </c>
+      <c r="R142" s="3"/>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5919,8 +9215,21 @@
       <c r="I143" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K143" t="s">
+        <v>662</v>
+      </c>
+      <c r="N143" t="s">
+        <v>706</v>
+      </c>
+      <c r="O143" t="s">
+        <v>858</v>
+      </c>
+      <c r="P143" s="3">
+        <v>42002</v>
+      </c>
+      <c r="R143" s="3"/>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5948,8 +9257,21 @@
       <c r="I144" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K144" t="s">
+        <v>664</v>
+      </c>
+      <c r="N144" t="s">
+        <v>706</v>
+      </c>
+      <c r="O144" t="s">
+        <v>859</v>
+      </c>
+      <c r="P144" s="3">
+        <v>43230</v>
+      </c>
+      <c r="R144" s="3"/>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5972,8 +9294,27 @@
       <c r="J145" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K145" t="s">
+        <v>656</v>
+      </c>
+      <c r="L145" t="s">
+        <v>559</v>
+      </c>
+      <c r="M145" t="s">
+        <v>511</v>
+      </c>
+      <c r="N145" t="s">
+        <v>712</v>
+      </c>
+      <c r="O145" t="s">
+        <v>860</v>
+      </c>
+      <c r="P145" s="3">
+        <v>43141</v>
+      </c>
+      <c r="R145" s="3"/>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5995,8 +9336,21 @@
       <c r="J146" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K146" t="s">
+        <v>664</v>
+      </c>
+      <c r="N146" t="s">
+        <v>706</v>
+      </c>
+      <c r="O146" t="s">
+        <v>861</v>
+      </c>
+      <c r="P146" s="3">
+        <v>43169</v>
+      </c>
+      <c r="R146" s="3"/>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6024,8 +9378,21 @@
       <c r="I147" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K147" t="s">
+        <v>664</v>
+      </c>
+      <c r="N147" t="s">
+        <v>706</v>
+      </c>
+      <c r="O147" t="s">
+        <v>862</v>
+      </c>
+      <c r="P147" s="3">
+        <v>43169</v>
+      </c>
+      <c r="R147" s="3"/>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6053,8 +9420,21 @@
       <c r="I148" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K148" t="s">
+        <v>638</v>
+      </c>
+      <c r="N148" t="s">
+        <v>706</v>
+      </c>
+      <c r="O148" t="s">
+        <v>863</v>
+      </c>
+      <c r="P148" s="3">
+        <v>43230</v>
+      </c>
+      <c r="R148" s="3"/>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6077,8 +9457,24 @@
       <c r="J149" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K149" t="s">
+        <v>665</v>
+      </c>
+      <c r="L149" t="s">
+        <v>560</v>
+      </c>
+      <c r="M149" t="s">
+        <v>704</v>
+      </c>
+      <c r="N149" t="s">
+        <v>749</v>
+      </c>
+      <c r="P149" s="3">
+        <v>41848</v>
+      </c>
+      <c r="R149" s="3"/>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6109,8 +9505,24 @@
       <c r="J150" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K150" t="s">
+        <v>666</v>
+      </c>
+      <c r="L150" t="s">
+        <v>561</v>
+      </c>
+      <c r="M150" t="s">
+        <v>704</v>
+      </c>
+      <c r="N150" t="s">
+        <v>750</v>
+      </c>
+      <c r="P150" s="3">
+        <v>42272</v>
+      </c>
+      <c r="R150" s="3"/>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6141,8 +9553,21 @@
       <c r="J151" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="L151" t="s">
+        <v>562</v>
+      </c>
+      <c r="M151" t="s">
+        <v>704</v>
+      </c>
+      <c r="N151" t="s">
+        <v>712</v>
+      </c>
+      <c r="P151" s="3">
+        <v>41943</v>
+      </c>
+      <c r="R151" s="3"/>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6162,8 +9587,27 @@
       <c r="I152" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K152" t="s">
+        <v>667</v>
+      </c>
+      <c r="L152" t="s">
+        <v>563</v>
+      </c>
+      <c r="M152" t="s">
+        <v>703</v>
+      </c>
+      <c r="N152" t="s">
+        <v>751</v>
+      </c>
+      <c r="O152" t="s">
+        <v>864</v>
+      </c>
+      <c r="P152" s="3">
+        <v>41943</v>
+      </c>
+      <c r="R152" s="3"/>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6194,8 +9638,27 @@
       <c r="J153" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K153" t="s">
+        <v>668</v>
+      </c>
+      <c r="L153" t="s">
+        <v>563</v>
+      </c>
+      <c r="M153" t="s">
+        <v>703</v>
+      </c>
+      <c r="N153" t="s">
+        <v>751</v>
+      </c>
+      <c r="O153" t="s">
+        <v>865</v>
+      </c>
+      <c r="P153" s="3">
+        <v>41851</v>
+      </c>
+      <c r="R153" s="3"/>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6226,8 +9689,27 @@
       <c r="J154" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K154" t="s">
+        <v>669</v>
+      </c>
+      <c r="L154" t="s">
+        <v>563</v>
+      </c>
+      <c r="M154" t="s">
+        <v>703</v>
+      </c>
+      <c r="N154" t="s">
+        <v>751</v>
+      </c>
+      <c r="O154" t="s">
+        <v>866</v>
+      </c>
+      <c r="P154" s="3">
+        <v>41851</v>
+      </c>
+      <c r="R154" s="3"/>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6258,8 +9740,27 @@
       <c r="J155" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K155" t="s">
+        <v>670</v>
+      </c>
+      <c r="L155" t="s">
+        <v>564</v>
+      </c>
+      <c r="M155" t="s">
+        <v>703</v>
+      </c>
+      <c r="N155" t="s">
+        <v>752</v>
+      </c>
+      <c r="O155" t="s">
+        <v>867</v>
+      </c>
+      <c r="P155" s="3">
+        <v>42461</v>
+      </c>
+      <c r="R155" s="3"/>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6279,8 +9780,27 @@
       <c r="I156" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K156" t="s">
+        <v>671</v>
+      </c>
+      <c r="L156" t="s">
+        <v>565</v>
+      </c>
+      <c r="M156" t="s">
+        <v>704</v>
+      </c>
+      <c r="N156" t="s">
+        <v>752</v>
+      </c>
+      <c r="O156" t="s">
+        <v>868</v>
+      </c>
+      <c r="P156" s="3">
+        <v>41758</v>
+      </c>
+      <c r="R156" s="3"/>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6308,8 +9828,27 @@
       <c r="I157" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K157" t="s">
+        <v>672</v>
+      </c>
+      <c r="L157" t="s">
+        <v>566</v>
+      </c>
+      <c r="M157" t="s">
+        <v>511</v>
+      </c>
+      <c r="N157" t="s">
+        <v>734</v>
+      </c>
+      <c r="O157" t="s">
+        <v>869</v>
+      </c>
+      <c r="P157" s="3">
+        <v>43169</v>
+      </c>
+      <c r="R157" s="3"/>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6340,8 +9879,24 @@
       <c r="J158" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K158" t="s">
+        <v>673</v>
+      </c>
+      <c r="L158" t="s">
+        <v>566</v>
+      </c>
+      <c r="M158" t="s">
+        <v>703</v>
+      </c>
+      <c r="N158" t="s">
+        <v>722</v>
+      </c>
+      <c r="P158" s="3">
+        <v>43141</v>
+      </c>
+      <c r="R158" s="3"/>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6369,8 +9924,27 @@
       <c r="I159" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K159" t="s">
+        <v>674</v>
+      </c>
+      <c r="L159" t="s">
+        <v>562</v>
+      </c>
+      <c r="M159" t="s">
+        <v>704</v>
+      </c>
+      <c r="N159" t="s">
+        <v>722</v>
+      </c>
+      <c r="O159" t="s">
+        <v>870</v>
+      </c>
+      <c r="P159" s="3">
+        <v>42208</v>
+      </c>
+      <c r="R159" s="3"/>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6398,8 +9972,27 @@
       <c r="I160" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K160" t="s">
+        <v>675</v>
+      </c>
+      <c r="L160" t="s">
+        <v>567</v>
+      </c>
+      <c r="M160" t="s">
+        <v>704</v>
+      </c>
+      <c r="N160" t="s">
+        <v>722</v>
+      </c>
+      <c r="O160" t="s">
+        <v>871</v>
+      </c>
+      <c r="P160" s="3">
+        <v>41943</v>
+      </c>
+      <c r="R160" s="3"/>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6430,8 +10023,27 @@
       <c r="J161" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K161" t="s">
+        <v>676</v>
+      </c>
+      <c r="L161" t="s">
+        <v>568</v>
+      </c>
+      <c r="M161" t="s">
+        <v>704</v>
+      </c>
+      <c r="N161" t="s">
+        <v>753</v>
+      </c>
+      <c r="O161" t="s">
+        <v>872</v>
+      </c>
+      <c r="P161" s="3">
+        <v>42209</v>
+      </c>
+      <c r="R161" s="3"/>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6459,8 +10071,27 @@
       <c r="I162" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K162" t="s">
+        <v>677</v>
+      </c>
+      <c r="L162" t="s">
+        <v>569</v>
+      </c>
+      <c r="M162" t="s">
+        <v>704</v>
+      </c>
+      <c r="N162" t="s">
+        <v>753</v>
+      </c>
+      <c r="O162" t="s">
+        <v>873</v>
+      </c>
+      <c r="P162" s="3">
+        <v>41851</v>
+      </c>
+      <c r="R162" s="3"/>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6480,8 +10111,24 @@
       <c r="I163" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K163" t="s">
+        <v>678</v>
+      </c>
+      <c r="L163" t="s">
+        <v>570</v>
+      </c>
+      <c r="M163" t="s">
+        <v>703</v>
+      </c>
+      <c r="N163" t="s">
+        <v>754</v>
+      </c>
+      <c r="P163" s="3">
+        <v>42002</v>
+      </c>
+      <c r="R163" s="3"/>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6509,8 +10156,27 @@
       <c r="I164" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K164" t="s">
+        <v>679</v>
+      </c>
+      <c r="L164" t="s">
+        <v>571</v>
+      </c>
+      <c r="M164" t="s">
+        <v>703</v>
+      </c>
+      <c r="N164" t="s">
+        <v>755</v>
+      </c>
+      <c r="O164" t="s">
+        <v>874</v>
+      </c>
+      <c r="P164" s="3">
+        <v>42835</v>
+      </c>
+      <c r="R164" s="3"/>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6529,8 +10195,24 @@
       <c r="I165" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K165" t="s">
+        <v>680</v>
+      </c>
+      <c r="L165" t="s">
+        <v>572</v>
+      </c>
+      <c r="M165" t="s">
+        <v>704</v>
+      </c>
+      <c r="N165" t="s">
+        <v>756</v>
+      </c>
+      <c r="P165" s="3">
+        <v>41940</v>
+      </c>
+      <c r="R165" s="3"/>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6549,8 +10231,24 @@
       <c r="I166" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K166" t="s">
+        <v>635</v>
+      </c>
+      <c r="L166" t="s">
+        <v>573</v>
+      </c>
+      <c r="M166" t="s">
+        <v>704</v>
+      </c>
+      <c r="N166" t="s">
+        <v>757</v>
+      </c>
+      <c r="P166" s="3">
+        <v>41865</v>
+      </c>
+      <c r="R166" s="3"/>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6578,8 +10276,27 @@
       <c r="I167" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K167" t="s">
+        <v>650</v>
+      </c>
+      <c r="L167" t="s">
+        <v>574</v>
+      </c>
+      <c r="M167" t="s">
+        <v>703</v>
+      </c>
+      <c r="N167" t="s">
+        <v>758</v>
+      </c>
+      <c r="O167" t="s">
+        <v>875</v>
+      </c>
+      <c r="P167" s="3">
+        <v>42208</v>
+      </c>
+      <c r="R167" s="3"/>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6610,8 +10327,24 @@
       <c r="J168" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K168" t="s">
+        <v>681</v>
+      </c>
+      <c r="L168" t="s">
+        <v>575</v>
+      </c>
+      <c r="M168" t="s">
+        <v>703</v>
+      </c>
+      <c r="N168" t="s">
+        <v>755</v>
+      </c>
+      <c r="P168" s="3">
+        <v>42208</v>
+      </c>
+      <c r="R168" s="3"/>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6639,8 +10372,24 @@
       <c r="I169" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K169" t="s">
+        <v>682</v>
+      </c>
+      <c r="L169" t="s">
+        <v>576</v>
+      </c>
+      <c r="M169" t="s">
+        <v>516</v>
+      </c>
+      <c r="N169" t="s">
+        <v>712</v>
+      </c>
+      <c r="P169" s="3">
+        <v>42887</v>
+      </c>
+      <c r="R169" s="3"/>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6657,8 +10406,27 @@
         <v>3</v>
       </c>
       <c r="H170" s="1"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I170" t="s">
+        <v>49</v>
+      </c>
+      <c r="K170" t="s">
+        <v>635</v>
+      </c>
+      <c r="L170" t="s">
+        <v>575</v>
+      </c>
+      <c r="M170" t="s">
+        <v>703</v>
+      </c>
+      <c r="N170" t="s">
+        <v>759</v>
+      </c>
+      <c r="P170" s="3">
+        <v>42272</v>
+      </c>
+      <c r="R170" s="3"/>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6689,8 +10457,27 @@
       <c r="J171" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K171" t="s">
+        <v>683</v>
+      </c>
+      <c r="L171" t="s">
+        <v>577</v>
+      </c>
+      <c r="M171" t="s">
+        <v>516</v>
+      </c>
+      <c r="N171" t="s">
+        <v>712</v>
+      </c>
+      <c r="O171" t="s">
+        <v>876</v>
+      </c>
+      <c r="P171" s="3">
+        <v>42887</v>
+      </c>
+      <c r="R171" s="3"/>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6718,8 +10505,24 @@
       <c r="I172" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K172" t="s">
+        <v>684</v>
+      </c>
+      <c r="L172" t="s">
+        <v>578</v>
+      </c>
+      <c r="M172" t="s">
+        <v>703</v>
+      </c>
+      <c r="N172" t="s">
+        <v>748</v>
+      </c>
+      <c r="P172" s="3">
+        <v>42887</v>
+      </c>
+      <c r="R172" s="3"/>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6750,8 +10553,24 @@
       <c r="J173" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K173" t="s">
+        <v>685</v>
+      </c>
+      <c r="L173" t="s">
+        <v>579</v>
+      </c>
+      <c r="M173" t="s">
+        <v>511</v>
+      </c>
+      <c r="N173" t="s">
+        <v>712</v>
+      </c>
+      <c r="P173" s="3">
+        <v>42896</v>
+      </c>
+      <c r="R173" s="3"/>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6774,8 +10593,27 @@
       <c r="J174" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K174" t="s">
+        <v>639</v>
+      </c>
+      <c r="L174" t="s">
+        <v>580</v>
+      </c>
+      <c r="M174" t="s">
+        <v>703</v>
+      </c>
+      <c r="N174" t="s">
+        <v>755</v>
+      </c>
+      <c r="O174" t="s">
+        <v>877</v>
+      </c>
+      <c r="P174" s="3">
+        <v>41788</v>
+      </c>
+      <c r="R174" s="3"/>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6794,8 +10632,24 @@
       <c r="I175" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K175" t="s">
+        <v>635</v>
+      </c>
+      <c r="L175" t="s">
+        <v>580</v>
+      </c>
+      <c r="M175" t="s">
+        <v>703</v>
+      </c>
+      <c r="N175" t="s">
+        <v>755</v>
+      </c>
+      <c r="P175" s="3">
+        <v>41789</v>
+      </c>
+      <c r="R175" s="3"/>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6814,8 +10668,27 @@
       <c r="I176" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K176" t="s">
+        <v>641</v>
+      </c>
+      <c r="L176" t="s">
+        <v>581</v>
+      </c>
+      <c r="M176" t="s">
+        <v>702</v>
+      </c>
+      <c r="N176" t="s">
+        <v>760</v>
+      </c>
+      <c r="O176" t="s">
+        <v>878</v>
+      </c>
+      <c r="P176" s="3">
+        <v>43167</v>
+      </c>
+      <c r="R176" s="3"/>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6834,8 +10707,27 @@
       <c r="I177" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K177" t="s">
+        <v>686</v>
+      </c>
+      <c r="L177" t="s">
+        <v>579</v>
+      </c>
+      <c r="M177" t="s">
+        <v>702</v>
+      </c>
+      <c r="N177" t="s">
+        <v>712</v>
+      </c>
+      <c r="O177" t="s">
+        <v>879</v>
+      </c>
+      <c r="P177" s="3">
+        <v>42887</v>
+      </c>
+      <c r="R177" s="3"/>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6863,8 +10755,24 @@
       <c r="I178" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K178" t="s">
+        <v>687</v>
+      </c>
+      <c r="L178" t="s">
+        <v>582</v>
+      </c>
+      <c r="M178" t="s">
+        <v>511</v>
+      </c>
+      <c r="N178" t="s">
+        <v>759</v>
+      </c>
+      <c r="O178" t="s">
+        <v>880</v>
+      </c>
+      <c r="P178"/>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6883,8 +10791,21 @@
       <c r="I179" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K179" t="s">
+        <v>688</v>
+      </c>
+      <c r="L179" t="s">
+        <v>583</v>
+      </c>
+      <c r="M179" t="s">
+        <v>511</v>
+      </c>
+      <c r="N179" t="s">
+        <v>761</v>
+      </c>
+      <c r="P179"/>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6906,8 +10827,27 @@
       <c r="J180" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K180" t="s">
+        <v>689</v>
+      </c>
+      <c r="L180" t="s">
+        <v>584</v>
+      </c>
+      <c r="M180" t="s">
+        <v>511</v>
+      </c>
+      <c r="N180" t="s">
+        <v>762</v>
+      </c>
+      <c r="O180" t="s">
+        <v>881</v>
+      </c>
+      <c r="P180" s="3">
+        <v>42887</v>
+      </c>
+      <c r="R180" s="3"/>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6935,8 +10875,24 @@
       <c r="I181" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K181" t="s">
+        <v>690</v>
+      </c>
+      <c r="L181" t="s">
+        <v>579</v>
+      </c>
+      <c r="M181" t="s">
+        <v>702</v>
+      </c>
+      <c r="N181" t="s">
+        <v>712</v>
+      </c>
+      <c r="O181" t="s">
+        <v>882</v>
+      </c>
+      <c r="P181"/>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6964,8 +10920,21 @@
       <c r="I182" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K182" t="s">
+        <v>691</v>
+      </c>
+      <c r="L182" t="s">
+        <v>585</v>
+      </c>
+      <c r="M182" t="s">
+        <v>511</v>
+      </c>
+      <c r="N182" t="s">
+        <v>747</v>
+      </c>
+      <c r="P182"/>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6996,8 +10965,24 @@
       <c r="J183" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K183" t="s">
+        <v>692</v>
+      </c>
+      <c r="L183" t="s">
+        <v>586</v>
+      </c>
+      <c r="M183" t="s">
+        <v>511</v>
+      </c>
+      <c r="N183" t="s">
+        <v>763</v>
+      </c>
+      <c r="O183" t="s">
+        <v>883</v>
+      </c>
+      <c r="P183"/>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7028,8 +11013,21 @@
       <c r="J184" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K184" t="s">
+        <v>693</v>
+      </c>
+      <c r="L184" t="s">
+        <v>587</v>
+      </c>
+      <c r="M184" t="s">
+        <v>516</v>
+      </c>
+      <c r="N184" t="s">
+        <v>764</v>
+      </c>
+      <c r="P184"/>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7052,8 +11050,24 @@
       <c r="J185" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K185" t="s">
+        <v>694</v>
+      </c>
+      <c r="L185" t="s">
+        <v>588</v>
+      </c>
+      <c r="M185" t="s">
+        <v>511</v>
+      </c>
+      <c r="N185" t="s">
+        <v>748</v>
+      </c>
+      <c r="O185" t="s">
+        <v>884</v>
+      </c>
+      <c r="P185"/>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7072,8 +11086,24 @@
       <c r="I186" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K186" t="s">
+        <v>695</v>
+      </c>
+      <c r="L186" t="s">
+        <v>589</v>
+      </c>
+      <c r="M186" t="s">
+        <v>703</v>
+      </c>
+      <c r="N186" t="s">
+        <v>761</v>
+      </c>
+      <c r="O186" t="s">
+        <v>885</v>
+      </c>
+      <c r="P186"/>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7101,8 +11131,24 @@
       <c r="I187" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K187" t="s">
+        <v>696</v>
+      </c>
+      <c r="L187" t="s">
+        <v>590</v>
+      </c>
+      <c r="M187" t="s">
+        <v>516</v>
+      </c>
+      <c r="N187" t="s">
+        <v>735</v>
+      </c>
+      <c r="O187" t="s">
+        <v>886</v>
+      </c>
+      <c r="P187"/>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7124,8 +11170,24 @@
       <c r="J188" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K188" t="s">
+        <v>635</v>
+      </c>
+      <c r="L188" t="s">
+        <v>591</v>
+      </c>
+      <c r="M188" t="s">
+        <v>702</v>
+      </c>
+      <c r="N188" t="s">
+        <v>712</v>
+      </c>
+      <c r="P188" s="3">
+        <v>42887</v>
+      </c>
+      <c r="R188" s="3"/>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7156,8 +11218,24 @@
       <c r="J189" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K189" t="s">
+        <v>697</v>
+      </c>
+      <c r="L189" t="s">
+        <v>592</v>
+      </c>
+      <c r="M189" t="s">
+        <v>516</v>
+      </c>
+      <c r="N189" t="s">
+        <v>735</v>
+      </c>
+      <c r="O189" t="s">
+        <v>887</v>
+      </c>
+      <c r="P189"/>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7179,8 +11257,24 @@
       <c r="J190" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K190" t="s">
+        <v>689</v>
+      </c>
+      <c r="L190" t="s">
+        <v>526</v>
+      </c>
+      <c r="M190" t="s">
+        <v>702</v>
+      </c>
+      <c r="N190" t="s">
+        <v>765</v>
+      </c>
+      <c r="O190" t="s">
+        <v>888</v>
+      </c>
+      <c r="P190"/>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7199,8 +11293,24 @@
       <c r="I191" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K191" t="s">
+        <v>698</v>
+      </c>
+      <c r="L191" t="s">
+        <v>593</v>
+      </c>
+      <c r="M191" t="s">
+        <v>516</v>
+      </c>
+      <c r="N191" t="s">
+        <v>742</v>
+      </c>
+      <c r="O191" t="s">
+        <v>889</v>
+      </c>
+      <c r="P191"/>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7219,8 +11329,24 @@
       <c r="I192" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K192" t="s">
+        <v>641</v>
+      </c>
+      <c r="L192" t="s">
+        <v>594</v>
+      </c>
+      <c r="M192" t="s">
+        <v>702</v>
+      </c>
+      <c r="N192" t="s">
+        <v>766</v>
+      </c>
+      <c r="O192" t="s">
+        <v>890</v>
+      </c>
+      <c r="P192"/>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7248,8 +11374,24 @@
       <c r="I193" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K193" t="s">
+        <v>644</v>
+      </c>
+      <c r="L193" t="s">
+        <v>595</v>
+      </c>
+      <c r="M193" t="s">
+        <v>702</v>
+      </c>
+      <c r="N193" t="s">
+        <v>712</v>
+      </c>
+      <c r="O193" t="s">
+        <v>891</v>
+      </c>
+      <c r="P193"/>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7277,8 +11419,24 @@
       <c r="I194" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K194" t="s">
+        <v>683</v>
+      </c>
+      <c r="L194" t="s">
+        <v>596</v>
+      </c>
+      <c r="M194" t="s">
+        <v>702</v>
+      </c>
+      <c r="N194" t="s">
+        <v>767</v>
+      </c>
+      <c r="O194" t="s">
+        <v>876</v>
+      </c>
+      <c r="P194"/>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7298,8 +11456,24 @@
       <c r="I195" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K195" t="s">
+        <v>662</v>
+      </c>
+      <c r="L195" t="s">
+        <v>597</v>
+      </c>
+      <c r="M195" t="s">
+        <v>703</v>
+      </c>
+      <c r="N195" t="s">
+        <v>750</v>
+      </c>
+      <c r="O195" t="s">
+        <v>892</v>
+      </c>
+      <c r="P195"/>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7318,8 +11492,24 @@
       <c r="I196" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K196" t="s">
+        <v>602</v>
+      </c>
+      <c r="L196" t="s">
+        <v>593</v>
+      </c>
+      <c r="M196" t="s">
+        <v>508</v>
+      </c>
+      <c r="N196" t="s">
+        <v>768</v>
+      </c>
+      <c r="O196" t="s">
+        <v>893</v>
+      </c>
+      <c r="P196"/>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>196</v>
       </c>
@@ -7350,8 +11540,27 @@
       <c r="J197" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K197" t="s">
+        <v>624</v>
+      </c>
+      <c r="L197" t="s">
+        <v>598</v>
+      </c>
+      <c r="M197" t="s">
+        <v>702</v>
+      </c>
+      <c r="N197" t="s">
+        <v>769</v>
+      </c>
+      <c r="O197" t="s">
+        <v>894</v>
+      </c>
+      <c r="P197" s="3">
+        <v>43381</v>
+      </c>
+      <c r="R197" s="3"/>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>197</v>
       </c>
@@ -7382,9 +11591,29 @@
       <c r="J198" t="s">
         <v>175</v>
       </c>
+      <c r="K198" t="s">
+        <v>699</v>
+      </c>
+      <c r="L198" t="s">
+        <v>598</v>
+      </c>
+      <c r="M198" t="s">
+        <v>702</v>
+      </c>
+      <c r="N198" t="s">
+        <v>769</v>
+      </c>
+      <c r="O198" t="s">
+        <v>895</v>
+      </c>
+      <c r="P198" s="3">
+        <v>43381</v>
+      </c>
+      <c r="R198" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>